--- a/braph2genesis/pipelines/connectivity/example data CON (DTI)/xls/GroupName2/subject32.xlsx
+++ b/braph2genesis/pipelines/connectivity/example data CON (DTI)/xls/GroupName2/subject32.xlsx
@@ -56,74 +56,74 @@
   <dimension ref="A1:BP68"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="2.16796875" customWidth="true"/>
-    <col min="2" max="2" width="2.16796875" customWidth="true"/>
-    <col min="3" max="3" width="2.16796875" customWidth="true"/>
-    <col min="4" max="4" width="2.16796875" customWidth="true"/>
-    <col min="5" max="5" width="2.16796875" customWidth="true"/>
-    <col min="6" max="6" width="2.16796875" customWidth="true"/>
-    <col min="7" max="7" width="2.16796875" customWidth="true"/>
-    <col min="8" max="8" width="2.16796875" customWidth="true"/>
-    <col min="9" max="9" width="2.16796875" customWidth="true"/>
-    <col min="10" max="10" width="2.16796875" customWidth="true"/>
-    <col min="11" max="11" width="2.16796875" customWidth="true"/>
-    <col min="12" max="12" width="2.16796875" customWidth="true"/>
-    <col min="13" max="13" width="2.16796875" customWidth="true"/>
-    <col min="14" max="14" width="2.16796875" customWidth="true"/>
-    <col min="15" max="15" width="2.16796875" customWidth="true"/>
-    <col min="16" max="16" width="2.16796875" customWidth="true"/>
-    <col min="17" max="17" width="2.16796875" customWidth="true"/>
-    <col min="18" max="18" width="2.16796875" customWidth="true"/>
-    <col min="19" max="19" width="2.16796875" customWidth="true"/>
-    <col min="20" max="20" width="2.16796875" customWidth="true"/>
-    <col min="21" max="21" width="2.16796875" customWidth="true"/>
-    <col min="22" max="22" width="2.16796875" customWidth="true"/>
-    <col min="23" max="23" width="2.16796875" customWidth="true"/>
-    <col min="24" max="24" width="2.16796875" customWidth="true"/>
-    <col min="25" max="25" width="2.16796875" customWidth="true"/>
-    <col min="26" max="26" width="2.16796875" customWidth="true"/>
-    <col min="27" max="27" width="2.16796875" customWidth="true"/>
-    <col min="28" max="28" width="2.16796875" customWidth="true"/>
-    <col min="29" max="29" width="2.16796875" customWidth="true"/>
-    <col min="30" max="30" width="2.16796875" customWidth="true"/>
-    <col min="31" max="31" width="2.16796875" customWidth="true"/>
-    <col min="32" max="32" width="2.16796875" customWidth="true"/>
-    <col min="33" max="33" width="2.16796875" customWidth="true"/>
-    <col min="34" max="34" width="2.16796875" customWidth="true"/>
-    <col min="35" max="35" width="2.16796875" customWidth="true"/>
-    <col min="36" max="36" width="2.16796875" customWidth="true"/>
-    <col min="37" max="37" width="2.16796875" customWidth="true"/>
-    <col min="38" max="38" width="2.16796875" customWidth="true"/>
-    <col min="39" max="39" width="2.16796875" customWidth="true"/>
-    <col min="40" max="40" width="2.16796875" customWidth="true"/>
-    <col min="41" max="41" width="2.16796875" customWidth="true"/>
-    <col min="42" max="42" width="2.16796875" customWidth="true"/>
-    <col min="43" max="43" width="2.16796875" customWidth="true"/>
-    <col min="44" max="44" width="2.16796875" customWidth="true"/>
-    <col min="45" max="45" width="2.16796875" customWidth="true"/>
-    <col min="46" max="46" width="2.16796875" customWidth="true"/>
-    <col min="47" max="47" width="2.16796875" customWidth="true"/>
-    <col min="48" max="48" width="2.16796875" customWidth="true"/>
-    <col min="49" max="49" width="2.16796875" customWidth="true"/>
-    <col min="50" max="50" width="2.16796875" customWidth="true"/>
-    <col min="51" max="51" width="2.16796875" customWidth="true"/>
-    <col min="52" max="52" width="2.16796875" customWidth="true"/>
-    <col min="53" max="53" width="2.16796875" customWidth="true"/>
-    <col min="54" max="54" width="2.16796875" customWidth="true"/>
-    <col min="55" max="55" width="2.16796875" customWidth="true"/>
-    <col min="56" max="56" width="2.16796875" customWidth="true"/>
-    <col min="57" max="57" width="2.16796875" customWidth="true"/>
-    <col min="58" max="58" width="2.16796875" customWidth="true"/>
-    <col min="59" max="59" width="2.16796875" customWidth="true"/>
-    <col min="60" max="60" width="2.16796875" customWidth="true"/>
-    <col min="61" max="61" width="2.16796875" customWidth="true"/>
-    <col min="62" max="62" width="2.16796875" customWidth="true"/>
-    <col min="63" max="63" width="2.16796875" customWidth="true"/>
-    <col min="64" max="64" width="2.16796875" customWidth="true"/>
-    <col min="65" max="65" width="2.16796875" customWidth="true"/>
-    <col min="66" max="66" width="2.16796875" customWidth="true"/>
-    <col min="67" max="67" width="2.16796875" customWidth="true"/>
-    <col min="68" max="68" width="2.16796875" customWidth="true"/>
+    <col min="1" max="1" width="12.7109375" customWidth="true"/>
+    <col min="2" max="2" width="12.7109375" customWidth="true"/>
+    <col min="3" max="3" width="12.7109375" customWidth="true"/>
+    <col min="4" max="4" width="12.7109375" customWidth="true"/>
+    <col min="5" max="5" width="12.7109375" customWidth="true"/>
+    <col min="6" max="6" width="12.7109375" customWidth="true"/>
+    <col min="7" max="7" width="12.7109375" customWidth="true"/>
+    <col min="8" max="8" width="12.7109375" customWidth="true"/>
+    <col min="9" max="9" width="12.7109375" customWidth="true"/>
+    <col min="10" max="10" width="12.7109375" customWidth="true"/>
+    <col min="11" max="11" width="12.7109375" customWidth="true"/>
+    <col min="12" max="12" width="12.7109375" customWidth="true"/>
+    <col min="13" max="13" width="12.7109375" customWidth="true"/>
+    <col min="14" max="14" width="12.7109375" customWidth="true"/>
+    <col min="15" max="15" width="12.7109375" customWidth="true"/>
+    <col min="16" max="16" width="12.7109375" customWidth="true"/>
+    <col min="17" max="17" width="12.7109375" customWidth="true"/>
+    <col min="18" max="18" width="12.7109375" customWidth="true"/>
+    <col min="19" max="19" width="12.7109375" customWidth="true"/>
+    <col min="20" max="20" width="12.7109375" customWidth="true"/>
+    <col min="21" max="21" width="12.7109375" customWidth="true"/>
+    <col min="22" max="22" width="12.7109375" customWidth="true"/>
+    <col min="23" max="23" width="12.7109375" customWidth="true"/>
+    <col min="24" max="24" width="12.7109375" customWidth="true"/>
+    <col min="25" max="25" width="12.7109375" customWidth="true"/>
+    <col min="26" max="26" width="12.7109375" customWidth="true"/>
+    <col min="27" max="27" width="12.7109375" customWidth="true"/>
+    <col min="28" max="28" width="12.7109375" customWidth="true"/>
+    <col min="29" max="29" width="12.7109375" customWidth="true"/>
+    <col min="30" max="30" width="12.7109375" customWidth="true"/>
+    <col min="31" max="31" width="12.7109375" customWidth="true"/>
+    <col min="32" max="32" width="12.7109375" customWidth="true"/>
+    <col min="33" max="33" width="12.7109375" customWidth="true"/>
+    <col min="34" max="34" width="12.7109375" customWidth="true"/>
+    <col min="35" max="35" width="12.7109375" customWidth="true"/>
+    <col min="36" max="36" width="12.7109375" customWidth="true"/>
+    <col min="37" max="37" width="12.7109375" customWidth="true"/>
+    <col min="38" max="38" width="12.7109375" customWidth="true"/>
+    <col min="39" max="39" width="12.7109375" customWidth="true"/>
+    <col min="40" max="40" width="12.7109375" customWidth="true"/>
+    <col min="41" max="41" width="12.7109375" customWidth="true"/>
+    <col min="42" max="42" width="12.7109375" customWidth="true"/>
+    <col min="43" max="43" width="12.7109375" customWidth="true"/>
+    <col min="44" max="44" width="12.7109375" customWidth="true"/>
+    <col min="45" max="45" width="12.7109375" customWidth="true"/>
+    <col min="46" max="46" width="12.7109375" customWidth="true"/>
+    <col min="47" max="47" width="12.7109375" customWidth="true"/>
+    <col min="48" max="48" width="12.7109375" customWidth="true"/>
+    <col min="49" max="49" width="12.7109375" customWidth="true"/>
+    <col min="50" max="50" width="12.7109375" customWidth="true"/>
+    <col min="51" max="51" width="12.7109375" customWidth="true"/>
+    <col min="52" max="52" width="12.7109375" customWidth="true"/>
+    <col min="53" max="53" width="12.7109375" customWidth="true"/>
+    <col min="54" max="54" width="12.7109375" customWidth="true"/>
+    <col min="55" max="55" width="12.7109375" customWidth="true"/>
+    <col min="56" max="56" width="12.7109375" customWidth="true"/>
+    <col min="57" max="57" width="12.7109375" customWidth="true"/>
+    <col min="58" max="58" width="12.7109375" customWidth="true"/>
+    <col min="59" max="59" width="12.7109375" customWidth="true"/>
+    <col min="60" max="60" width="12.7109375" customWidth="true"/>
+    <col min="61" max="61" width="12.7109375" customWidth="true"/>
+    <col min="62" max="62" width="12.7109375" customWidth="true"/>
+    <col min="63" max="63" width="12.7109375" customWidth="true"/>
+    <col min="64" max="64" width="12.7109375" customWidth="true"/>
+    <col min="65" max="65" width="12.7109375" customWidth="true"/>
+    <col min="66" max="66" width="12.7109375" customWidth="true"/>
+    <col min="67" max="67" width="12.7109375" customWidth="true"/>
+    <col min="68" max="68" width="12.7109375" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -146,7 +146,7 @@
         <v>0</v>
       </c>
       <c r="G1" s="0">
-        <v>0</v>
+        <v>0.58681215779402085</v>
       </c>
       <c r="H1" s="0">
         <v>0</v>
@@ -173,7 +173,7 @@
         <v>0</v>
       </c>
       <c r="P1" s="0">
-        <v>0</v>
+        <v>0.73803827134100009</v>
       </c>
       <c r="Q1" s="0">
         <v>0</v>
@@ -206,13 +206,13 @@
         <v>0</v>
       </c>
       <c r="AA1" s="0">
-        <v>0</v>
+        <v>0.63436833041432206</v>
       </c>
       <c r="AB1" s="0">
         <v>0</v>
       </c>
       <c r="AC1" s="0">
-        <v>0</v>
+        <v>0.93949500863609425</v>
       </c>
       <c r="AD1" s="0">
         <v>0</v>
@@ -266,7 +266,7 @@
         <v>0</v>
       </c>
       <c r="AU1" s="0">
-        <v>0</v>
+        <v>0.87638582686951605</v>
       </c>
       <c r="AV1" s="0">
         <v>0</v>
@@ -281,7 +281,7 @@
         <v>0</v>
       </c>
       <c r="AZ1" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA1" s="0">
         <v>0</v>
@@ -293,7 +293,7 @@
         <v>0</v>
       </c>
       <c r="BD1" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE1" s="0">
         <v>0</v>
@@ -323,7 +323,7 @@
         <v>0</v>
       </c>
       <c r="BN1" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO1" s="0">
         <v>0</v>
@@ -340,10 +340,10 @@
         <v>0</v>
       </c>
       <c r="C2" s="0">
-        <v>1</v>
+        <v>0.70609752571689932</v>
       </c>
       <c r="D2" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E2" s="0">
         <v>0</v>
@@ -355,7 +355,7 @@
         <v>0</v>
       </c>
       <c r="H2" s="0">
-        <v>0</v>
+        <v>0.79763698021382989</v>
       </c>
       <c r="I2" s="0">
         <v>0</v>
@@ -379,7 +379,7 @@
         <v>0</v>
       </c>
       <c r="P2" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q2" s="0">
         <v>0</v>
@@ -433,7 +433,7 @@
         <v>0</v>
       </c>
       <c r="AH2" s="0">
-        <v>0</v>
+        <v>0.96143626262092519</v>
       </c>
       <c r="AI2" s="0">
         <v>0</v>
@@ -442,7 +442,7 @@
         <v>0</v>
       </c>
       <c r="AK2" s="0">
-        <v>0</v>
+        <v>0.92082721716303539</v>
       </c>
       <c r="AL2" s="0">
         <v>0</v>
@@ -543,7 +543,7 @@
         <v>0</v>
       </c>
       <c r="B3" s="0">
-        <v>1</v>
+        <v>0.79594628773323817</v>
       </c>
       <c r="C3" s="0">
         <v>0</v>
@@ -642,7 +642,7 @@
         <v>0</v>
       </c>
       <c r="AI3" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ3" s="0">
         <v>0</v>
@@ -660,7 +660,7 @@
         <v>0</v>
       </c>
       <c r="AO3" s="0">
-        <v>0</v>
+        <v>0.97626921097861763</v>
       </c>
       <c r="AP3" s="0">
         <v>0</v>
@@ -669,7 +669,7 @@
         <v>0</v>
       </c>
       <c r="AR3" s="0">
-        <v>0</v>
+        <v>0.6103179015919955</v>
       </c>
       <c r="AS3" s="0">
         <v>0</v>
@@ -684,7 +684,7 @@
         <v>0</v>
       </c>
       <c r="AW3" s="0">
-        <v>0</v>
+        <v>0.65171164815919158</v>
       </c>
       <c r="AX3" s="0">
         <v>0</v>
@@ -720,7 +720,7 @@
         <v>0</v>
       </c>
       <c r="BI3" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJ3" s="0">
         <v>0</v>
@@ -749,7 +749,7 @@
         <v>0</v>
       </c>
       <c r="B4" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4" s="0">
         <v>0</v>
@@ -794,10 +794,10 @@
         <v>0</v>
       </c>
       <c r="Q4" s="0">
-        <v>0</v>
+        <v>0.92116389330060544</v>
       </c>
       <c r="R4" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S4" s="0">
         <v>0</v>
@@ -824,13 +824,13 @@
         <v>0</v>
       </c>
       <c r="AA4" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB4" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC4" s="0">
-        <v>0</v>
+        <v>0.63223111923003139</v>
       </c>
       <c r="AD4" s="0">
         <v>0</v>
@@ -857,7 +857,7 @@
         <v>0</v>
       </c>
       <c r="AL4" s="0">
-        <v>0</v>
+        <v>0.73354284620833221</v>
       </c>
       <c r="AM4" s="0">
         <v>0</v>
@@ -881,7 +881,7 @@
         <v>0</v>
       </c>
       <c r="AT4" s="0">
-        <v>0</v>
+        <v>0.98032062064436665</v>
       </c>
       <c r="AU4" s="0">
         <v>0</v>
@@ -911,7 +911,7 @@
         <v>0</v>
       </c>
       <c r="BD4" s="0">
-        <v>0</v>
+        <v>0.91636570012272733</v>
       </c>
       <c r="BE4" s="0">
         <v>0</v>
@@ -967,13 +967,13 @@
         <v>0</v>
       </c>
       <c r="F5" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G5" s="0">
         <v>0</v>
       </c>
       <c r="H5" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I5" s="0">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="O5" s="0">
-        <v>0</v>
+        <v>0.61705142625856868</v>
       </c>
       <c r="P5" s="0">
         <v>0</v>
@@ -1054,10 +1054,10 @@
         <v>0</v>
       </c>
       <c r="AI5" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ5" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK5" s="0">
         <v>0</v>
@@ -1099,7 +1099,7 @@
         <v>0</v>
       </c>
       <c r="AX5" s="0">
-        <v>0</v>
+        <v>0.70909073317061599</v>
       </c>
       <c r="AY5" s="0">
         <v>0</v>
@@ -1170,7 +1170,7 @@
         <v>0</v>
       </c>
       <c r="E6" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F6" s="0">
         <v>0</v>
@@ -1191,7 +1191,7 @@
         <v>0</v>
       </c>
       <c r="L6" s="0">
-        <v>0</v>
+        <v>0.76634458077853918</v>
       </c>
       <c r="M6" s="0">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="S6" s="0">
-        <v>0</v>
+        <v>0.84378895461969061</v>
       </c>
       <c r="T6" s="0">
         <v>0</v>
@@ -1260,13 +1260,13 @@
         <v>0</v>
       </c>
       <c r="AI6" s="0">
-        <v>0</v>
+        <v>0.88784415334368882</v>
       </c>
       <c r="AJ6" s="0">
         <v>0</v>
       </c>
       <c r="AK6" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL6" s="0">
         <v>0</v>
@@ -1308,7 +1308,7 @@
         <v>0</v>
       </c>
       <c r="AY6" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ6" s="0">
         <v>0</v>
@@ -1341,7 +1341,7 @@
         <v>0</v>
       </c>
       <c r="BJ6" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BK6" s="0">
         <v>0</v>
@@ -1364,7 +1364,7 @@
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0</v>
+        <v>0.83367850075631211</v>
       </c>
       <c r="B7" s="0">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="M7" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N7" s="0">
         <v>0</v>
@@ -1427,16 +1427,16 @@
         <v>0</v>
       </c>
       <c r="V7" s="0">
-        <v>0</v>
+        <v>0.75772108024712914</v>
       </c>
       <c r="W7" s="0">
         <v>0</v>
       </c>
       <c r="X7" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y7" s="0">
-        <v>0</v>
+        <v>0.83171515488565095</v>
       </c>
       <c r="Z7" s="0">
         <v>0</v>
@@ -1472,7 +1472,7 @@
         <v>0</v>
       </c>
       <c r="AK7" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL7" s="0">
         <v>0</v>
@@ -1487,7 +1487,7 @@
         <v>0</v>
       </c>
       <c r="AP7" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ7" s="0">
         <v>0</v>
@@ -1502,7 +1502,7 @@
         <v>0</v>
       </c>
       <c r="AU7" s="0">
-        <v>0</v>
+        <v>0.84626384899774409</v>
       </c>
       <c r="AV7" s="0">
         <v>0</v>
@@ -1535,7 +1535,7 @@
         <v>0</v>
       </c>
       <c r="BF7" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG7" s="0">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="B8" s="0">
-        <v>0</v>
+        <v>0.97421105818463105</v>
       </c>
       <c r="C8" s="0">
         <v>0</v>
@@ -1582,7 +1582,7 @@
         <v>0</v>
       </c>
       <c r="E8" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F8" s="0">
         <v>0</v>
@@ -1597,13 +1597,13 @@
         <v>0</v>
       </c>
       <c r="J8" s="0">
-        <v>0</v>
+        <v>0.82786985395499402</v>
       </c>
       <c r="K8" s="0">
         <v>0</v>
       </c>
       <c r="L8" s="0">
-        <v>0</v>
+        <v>0.90763049369300286</v>
       </c>
       <c r="M8" s="0">
         <v>0</v>
@@ -1615,13 +1615,13 @@
         <v>0</v>
       </c>
       <c r="P8" s="0">
-        <v>0</v>
+        <v>0.73007378045336457</v>
       </c>
       <c r="Q8" s="0">
         <v>0</v>
       </c>
       <c r="R8" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S8" s="0">
         <v>0</v>
@@ -1675,7 +1675,7 @@
         <v>0</v>
       </c>
       <c r="AJ8" s="0">
-        <v>0</v>
+        <v>0.89068434726611723</v>
       </c>
       <c r="AK8" s="0">
         <v>0</v>
@@ -1687,7 +1687,7 @@
         <v>0</v>
       </c>
       <c r="AN8" s="0">
-        <v>0</v>
+        <v>0.53540973529255886</v>
       </c>
       <c r="AO8" s="0">
         <v>0</v>
@@ -1723,7 +1723,7 @@
         <v>0</v>
       </c>
       <c r="AZ8" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA8" s="0">
         <v>0</v>
@@ -1750,7 +1750,7 @@
         <v>0</v>
       </c>
       <c r="BI8" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJ8" s="0">
         <v>0</v>
@@ -1809,7 +1809,7 @@
         <v>0</v>
       </c>
       <c r="L9" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M9" s="0">
         <v>0</v>
@@ -1818,7 +1818,7 @@
         <v>0</v>
       </c>
       <c r="O9" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P9" s="0">
         <v>0</v>
@@ -1830,7 +1830,7 @@
         <v>0</v>
       </c>
       <c r="S9" s="0">
-        <v>0</v>
+        <v>0.93730289642844378</v>
       </c>
       <c r="T9" s="0">
         <v>0</v>
@@ -1887,7 +1887,7 @@
         <v>0</v>
       </c>
       <c r="AL9" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM9" s="0">
         <v>0</v>
@@ -1896,7 +1896,7 @@
         <v>0</v>
       </c>
       <c r="AO9" s="0">
-        <v>0</v>
+        <v>0.6579867426499203</v>
       </c>
       <c r="AP9" s="0">
         <v>0</v>
@@ -1905,7 +1905,7 @@
         <v>0</v>
       </c>
       <c r="AR9" s="0">
-        <v>0</v>
+        <v>0.97373865460822406</v>
       </c>
       <c r="AS9" s="0">
         <v>0</v>
@@ -2003,7 +2003,7 @@
         <v>0</v>
       </c>
       <c r="H10" s="0">
-        <v>0</v>
+        <v>0.85508501224711653</v>
       </c>
       <c r="I10" s="0">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="AX10" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY10" s="0">
         <v>0</v>
@@ -2141,7 +2141,7 @@
         <v>0</v>
       </c>
       <c r="BB10" s="0">
-        <v>0</v>
+        <v>0.56967571753606094</v>
       </c>
       <c r="BC10" s="0">
         <v>0</v>
@@ -2174,7 +2174,7 @@
         <v>0</v>
       </c>
       <c r="BM10" s="0">
-        <v>1</v>
+        <v>0.78282305644365979</v>
       </c>
       <c r="BN10" s="0">
         <v>0</v>
@@ -2221,13 +2221,13 @@
         <v>0</v>
       </c>
       <c r="L11" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M11" s="0">
         <v>0</v>
       </c>
       <c r="N11" s="0">
-        <v>0</v>
+        <v>0.5962096854210307</v>
       </c>
       <c r="O11" s="0">
         <v>0</v>
@@ -2269,7 +2269,7 @@
         <v>0</v>
       </c>
       <c r="AB11" s="0">
-        <v>0</v>
+        <v>0.52799394090766527</v>
       </c>
       <c r="AC11" s="0">
         <v>0</v>
@@ -2296,10 +2296,10 @@
         <v>0</v>
       </c>
       <c r="AK11" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL11" s="0">
-        <v>0</v>
+        <v>0.83688817639980884</v>
       </c>
       <c r="AM11" s="0">
         <v>0</v>
@@ -2338,7 +2338,7 @@
         <v>0</v>
       </c>
       <c r="AY11" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ11" s="0">
         <v>0</v>
@@ -2362,10 +2362,10 @@
         <v>0</v>
       </c>
       <c r="BG11" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH11" s="0">
-        <v>0</v>
+        <v>0.61055255787522578</v>
       </c>
       <c r="BI11" s="0">
         <v>0</v>
@@ -2380,13 +2380,13 @@
         <v>0</v>
       </c>
       <c r="BM11" s="0">
-        <v>1</v>
+        <v>0.67474487848567355</v>
       </c>
       <c r="BN11" s="0">
         <v>0</v>
       </c>
       <c r="BO11" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP11" s="0">
         <v>0</v>
@@ -2409,28 +2409,28 @@
         <v>0</v>
       </c>
       <c r="F12" s="0">
-        <v>0</v>
+        <v>0.72144913486588758</v>
       </c>
       <c r="G12" s="0">
         <v>0</v>
       </c>
       <c r="H12" s="0">
-        <v>0</v>
+        <v>0.68918053955984659</v>
       </c>
       <c r="I12" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J12" s="0">
         <v>0</v>
       </c>
       <c r="K12" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L12" s="0">
         <v>0</v>
       </c>
       <c r="M12" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N12" s="0">
         <v>0</v>
@@ -2469,13 +2469,13 @@
         <v>0</v>
       </c>
       <c r="Z12" s="0">
-        <v>0</v>
+        <v>0.65178502756406798</v>
       </c>
       <c r="AA12" s="0">
         <v>0</v>
       </c>
       <c r="AB12" s="0">
-        <v>0</v>
+        <v>0.70622859463837351</v>
       </c>
       <c r="AC12" s="0">
         <v>0</v>
@@ -2538,7 +2538,7 @@
         <v>0</v>
       </c>
       <c r="AW12" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX12" s="0">
         <v>0</v>
@@ -2586,13 +2586,13 @@
         <v>0</v>
       </c>
       <c r="BM12" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN12" s="0">
         <v>0</v>
       </c>
       <c r="BO12" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP12" s="0">
         <v>0</v>
@@ -2618,7 +2618,7 @@
         <v>0</v>
       </c>
       <c r="G13" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H13" s="0">
         <v>0</v>
@@ -2633,13 +2633,13 @@
         <v>0</v>
       </c>
       <c r="L13" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M13" s="0">
         <v>0</v>
       </c>
       <c r="N13" s="0">
-        <v>0</v>
+        <v>0.57093262121554855</v>
       </c>
       <c r="O13" s="0">
         <v>0</v>
@@ -2654,7 +2654,7 @@
         <v>0</v>
       </c>
       <c r="S13" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T13" s="0">
         <v>0</v>
@@ -2714,7 +2714,7 @@
         <v>0</v>
       </c>
       <c r="AM13" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN13" s="0">
         <v>0</v>
@@ -2756,7 +2756,7 @@
         <v>0</v>
       </c>
       <c r="BA13" s="0">
-        <v>1</v>
+        <v>0.98761723503726151</v>
       </c>
       <c r="BB13" s="0">
         <v>0</v>
@@ -2765,7 +2765,7 @@
         <v>0</v>
       </c>
       <c r="BD13" s="0">
-        <v>0</v>
+        <v>0.70033634855073412</v>
       </c>
       <c r="BE13" s="0">
         <v>0</v>
@@ -2780,7 +2780,7 @@
         <v>0</v>
       </c>
       <c r="BI13" s="0">
-        <v>0</v>
+        <v>0.73863536381774819</v>
       </c>
       <c r="BJ13" s="0">
         <v>0</v>
@@ -2836,13 +2836,13 @@
         <v>0</v>
       </c>
       <c r="K14" s="0">
-        <v>0</v>
+        <v>0.86240590845704501</v>
       </c>
       <c r="L14" s="0">
         <v>0</v>
       </c>
       <c r="M14" s="0">
-        <v>0</v>
+        <v>0.57419693411036465</v>
       </c>
       <c r="N14" s="0">
         <v>0</v>
@@ -2851,7 +2851,7 @@
         <v>0</v>
       </c>
       <c r="P14" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q14" s="0">
         <v>0</v>
@@ -2905,7 +2905,7 @@
         <v>0</v>
       </c>
       <c r="AH14" s="0">
-        <v>0</v>
+        <v>0.73874378301361354</v>
       </c>
       <c r="AI14" s="0">
         <v>0</v>
@@ -2920,7 +2920,7 @@
         <v>0</v>
       </c>
       <c r="AM14" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN14" s="0">
         <v>0</v>
@@ -3024,7 +3024,7 @@
         <v>0</v>
       </c>
       <c r="E15" s="0">
-        <v>0</v>
+        <v>0.73385125611160718</v>
       </c>
       <c r="F15" s="0">
         <v>0</v>
@@ -3036,7 +3036,7 @@
         <v>0</v>
       </c>
       <c r="I15" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J15" s="0">
         <v>0</v>
@@ -3057,7 +3057,7 @@
         <v>0</v>
       </c>
       <c r="P15" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q15" s="0">
         <v>0</v>
@@ -3081,16 +3081,16 @@
         <v>0</v>
       </c>
       <c r="X15" s="0">
-        <v>0</v>
+        <v>0.83503087957812172</v>
       </c>
       <c r="Y15" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z15" s="0">
         <v>0</v>
       </c>
       <c r="AA15" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB15" s="0">
         <v>0</v>
@@ -3099,10 +3099,10 @@
         <v>0</v>
       </c>
       <c r="AD15" s="0">
-        <v>0</v>
+        <v>0.53007332372156757</v>
       </c>
       <c r="AE15" s="0">
-        <v>0</v>
+        <v>0.69384907949182906</v>
       </c>
       <c r="AF15" s="0">
         <v>0</v>
@@ -3123,13 +3123,13 @@
         <v>0</v>
       </c>
       <c r="AL15" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM15" s="0">
         <v>0</v>
       </c>
       <c r="AN15" s="0">
-        <v>0</v>
+        <v>0.99093298848891109</v>
       </c>
       <c r="AO15" s="0">
         <v>0</v>
@@ -3150,7 +3150,7 @@
         <v>0</v>
       </c>
       <c r="AU15" s="0">
-        <v>0</v>
+        <v>0.90340968562550406</v>
       </c>
       <c r="AV15" s="0">
         <v>0</v>
@@ -3218,10 +3218,10 @@
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0</v>
+        <v>0.80546468036762431</v>
       </c>
       <c r="B16" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C16" s="0">
         <v>0</v>
@@ -3239,7 +3239,7 @@
         <v>0</v>
       </c>
       <c r="H16" s="0">
-        <v>0</v>
+        <v>0.9049259404877239</v>
       </c>
       <c r="I16" s="0">
         <v>0</v>
@@ -3257,10 +3257,10 @@
         <v>0</v>
       </c>
       <c r="N16" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O16" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P16" s="0">
         <v>0</v>
@@ -3269,7 +3269,7 @@
         <v>0</v>
       </c>
       <c r="R16" s="0">
-        <v>0</v>
+        <v>0.64122445526015481</v>
       </c>
       <c r="S16" s="0">
         <v>0</v>
@@ -3299,13 +3299,13 @@
         <v>0</v>
       </c>
       <c r="AB16" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC16" s="0">
         <v>0</v>
       </c>
       <c r="AD16" s="0">
-        <v>0</v>
+        <v>0.88954073074574325</v>
       </c>
       <c r="AE16" s="0">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="AG16" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH16" s="0">
         <v>0</v>
@@ -3338,7 +3338,7 @@
         <v>0</v>
       </c>
       <c r="AO16" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP16" s="0">
         <v>0</v>
@@ -3398,10 +3398,10 @@
         <v>0</v>
       </c>
       <c r="BI16" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJ16" s="0">
-        <v>0</v>
+        <v>0.9588052620894304</v>
       </c>
       <c r="BK16" s="0">
         <v>0</v>
@@ -3433,7 +3433,7 @@
         <v>0</v>
       </c>
       <c r="D17" s="0">
-        <v>0</v>
+        <v>0.75040454022257186</v>
       </c>
       <c r="E17" s="0">
         <v>0</v>
@@ -3475,10 +3475,10 @@
         <v>0</v>
       </c>
       <c r="R17" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S17" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T17" s="0">
         <v>0</v>
@@ -3493,7 +3493,7 @@
         <v>0</v>
       </c>
       <c r="X17" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y17" s="0">
         <v>0</v>
@@ -3541,7 +3541,7 @@
         <v>0</v>
       </c>
       <c r="AN17" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO17" s="0">
         <v>0</v>
@@ -3586,10 +3586,10 @@
         <v>0</v>
       </c>
       <c r="BC17" s="0">
-        <v>0</v>
+        <v>0.81597068187300525</v>
       </c>
       <c r="BD17" s="0">
-        <v>0</v>
+        <v>0.9068283747680046</v>
       </c>
       <c r="BE17" s="0">
         <v>0</v>
@@ -3639,7 +3639,7 @@
         <v>0</v>
       </c>
       <c r="D18" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E18" s="0">
         <v>0</v>
@@ -3651,7 +3651,7 @@
         <v>0</v>
       </c>
       <c r="H18" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I18" s="0">
         <v>0</v>
@@ -3675,10 +3675,10 @@
         <v>0</v>
       </c>
       <c r="P18" s="0">
-        <v>0</v>
+        <v>0.65736593158940959</v>
       </c>
       <c r="Q18" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R18" s="0">
         <v>0</v>
@@ -3714,7 +3714,7 @@
         <v>0</v>
       </c>
       <c r="AC18" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD18" s="0">
         <v>0</v>
@@ -3726,13 +3726,13 @@
         <v>0</v>
       </c>
       <c r="AG18" s="0">
-        <v>0</v>
+        <v>0.96466090570920093</v>
       </c>
       <c r="AH18" s="0">
         <v>0</v>
       </c>
       <c r="AI18" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ18" s="0">
         <v>0</v>
@@ -3744,7 +3744,7 @@
         <v>0</v>
       </c>
       <c r="AM18" s="0">
-        <v>0</v>
+        <v>0.52590396573637022</v>
       </c>
       <c r="AN18" s="0">
         <v>0</v>
@@ -3789,16 +3789,16 @@
         <v>0</v>
       </c>
       <c r="BB18" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC18" s="0">
-        <v>0</v>
+        <v>0.83118288868164003</v>
       </c>
       <c r="BD18" s="0">
         <v>0</v>
       </c>
       <c r="BE18" s="0">
-        <v>0</v>
+        <v>0.97074011468225418</v>
       </c>
       <c r="BF18" s="0">
         <v>0</v>
@@ -3819,7 +3819,7 @@
         <v>0</v>
       </c>
       <c r="BL18" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM18" s="0">
         <v>0</v>
@@ -3851,7 +3851,7 @@
         <v>0</v>
       </c>
       <c r="F19" s="0">
-        <v>0</v>
+        <v>0.53431036050281788</v>
       </c>
       <c r="G19" s="0">
         <v>0</v>
@@ -3860,7 +3860,7 @@
         <v>0</v>
       </c>
       <c r="I19" s="0">
-        <v>0</v>
+        <v>0.88508496428706707</v>
       </c>
       <c r="J19" s="0">
         <v>0</v>
@@ -3872,7 +3872,7 @@
         <v>0</v>
       </c>
       <c r="M19" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N19" s="0">
         <v>0</v>
@@ -3884,7 +3884,7 @@
         <v>0</v>
       </c>
       <c r="Q19" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R19" s="0">
         <v>0</v>
@@ -3923,7 +3923,7 @@
         <v>0</v>
       </c>
       <c r="AD19" s="0">
-        <v>0</v>
+        <v>0.57852663070161592</v>
       </c>
       <c r="AE19" s="0">
         <v>0</v>
@@ -3932,7 +3932,7 @@
         <v>0</v>
       </c>
       <c r="AG19" s="0">
-        <v>0</v>
+        <v>0.53077624678123747</v>
       </c>
       <c r="AH19" s="0">
         <v>0</v>
@@ -3992,7 +3992,7 @@
         <v>0</v>
       </c>
       <c r="BA19" s="0">
-        <v>0</v>
+        <v>0.73323673561573699</v>
       </c>
       <c r="BB19" s="0">
         <v>0</v>
@@ -4019,7 +4019,7 @@
         <v>0</v>
       </c>
       <c r="BJ19" s="0">
-        <v>0</v>
+        <v>0.99413243016330155</v>
       </c>
       <c r="BK19" s="0">
         <v>0</v>
@@ -4102,7 +4102,7 @@
         <v>0</v>
       </c>
       <c r="U20" s="0">
-        <v>0</v>
+        <v>0.59101116969377532</v>
       </c>
       <c r="V20" s="0">
         <v>0</v>
@@ -4114,25 +4114,25 @@
         <v>0</v>
       </c>
       <c r="Y20" s="0">
-        <v>0</v>
+        <v>0.72612576452547029</v>
       </c>
       <c r="Z20" s="0">
-        <v>0</v>
+        <v>0.81266455620344569</v>
       </c>
       <c r="AA20" s="0">
         <v>0</v>
       </c>
       <c r="AB20" s="0">
-        <v>0</v>
+        <v>0.61629401657496985</v>
       </c>
       <c r="AC20" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD20" s="0">
         <v>0</v>
       </c>
       <c r="AE20" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF20" s="0">
         <v>0</v>
@@ -4147,7 +4147,7 @@
         <v>0</v>
       </c>
       <c r="AJ20" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK20" s="0">
         <v>0</v>
@@ -4162,7 +4162,7 @@
         <v>0</v>
       </c>
       <c r="AO20" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP20" s="0">
         <v>0</v>
@@ -4177,7 +4177,7 @@
         <v>0</v>
       </c>
       <c r="AT20" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU20" s="0">
         <v>0</v>
@@ -4305,13 +4305,13 @@
         <v>0</v>
       </c>
       <c r="T21" s="0">
-        <v>0</v>
+        <v>0.6737704604755046</v>
       </c>
       <c r="U21" s="0">
         <v>0</v>
       </c>
       <c r="V21" s="0">
-        <v>1</v>
+        <v>0.66739389173640506</v>
       </c>
       <c r="W21" s="0">
         <v>0</v>
@@ -4362,13 +4362,13 @@
         <v>0</v>
       </c>
       <c r="AM21" s="0">
-        <v>0</v>
+        <v>0.82203017281094071</v>
       </c>
       <c r="AN21" s="0">
         <v>0</v>
       </c>
       <c r="AO21" s="0">
-        <v>0</v>
+        <v>0.61468139203106342</v>
       </c>
       <c r="AP21" s="0">
         <v>0</v>
@@ -4386,7 +4386,7 @@
         <v>0</v>
       </c>
       <c r="AU21" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV21" s="0">
         <v>0</v>
@@ -4395,7 +4395,7 @@
         <v>0</v>
       </c>
       <c r="AX21" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY21" s="0">
         <v>0</v>
@@ -4404,7 +4404,7 @@
         <v>0</v>
       </c>
       <c r="BA21" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB21" s="0">
         <v>0</v>
@@ -4425,7 +4425,7 @@
         <v>0</v>
       </c>
       <c r="BH21" s="0">
-        <v>0</v>
+        <v>0.70999065049597909</v>
       </c>
       <c r="BI21" s="0">
         <v>0</v>
@@ -4472,7 +4472,7 @@
         <v>0</v>
       </c>
       <c r="G22" s="0">
-        <v>0</v>
+        <v>0.81990362286020391</v>
       </c>
       <c r="H22" s="0">
         <v>0</v>
@@ -4514,7 +4514,7 @@
         <v>0</v>
       </c>
       <c r="U22" s="0">
-        <v>1</v>
+        <v>0.90073244317818135</v>
       </c>
       <c r="V22" s="0">
         <v>0</v>
@@ -4616,7 +4616,7 @@
         <v>0</v>
       </c>
       <c r="BC22" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD22" s="0">
         <v>0</v>
@@ -4625,7 +4625,7 @@
         <v>0</v>
       </c>
       <c r="BF22" s="0">
-        <v>0</v>
+        <v>0.58974932940144553</v>
       </c>
       <c r="BG22" s="0">
         <v>0</v>
@@ -4732,13 +4732,13 @@
         <v>0</v>
       </c>
       <c r="Y23" s="0">
-        <v>0</v>
+        <v>0.86079322054775731</v>
       </c>
       <c r="Z23" s="0">
         <v>0</v>
       </c>
       <c r="AA23" s="0">
-        <v>0</v>
+        <v>0.94874398329184284</v>
       </c>
       <c r="AB23" s="0">
         <v>0</v>
@@ -4780,7 +4780,7 @@
         <v>0</v>
       </c>
       <c r="AO23" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP23" s="0">
         <v>0</v>
@@ -4804,7 +4804,7 @@
         <v>0</v>
       </c>
       <c r="AW23" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX23" s="0">
         <v>0</v>
@@ -4884,7 +4884,7 @@
         <v>0</v>
       </c>
       <c r="G24" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H24" s="0">
         <v>0</v>
@@ -4908,13 +4908,13 @@
         <v>0</v>
       </c>
       <c r="O24" s="0">
-        <v>0</v>
+        <v>0.60631376240609303</v>
       </c>
       <c r="P24" s="0">
         <v>0</v>
       </c>
       <c r="Q24" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R24" s="0">
         <v>0</v>
@@ -4989,7 +4989,7 @@
         <v>0</v>
       </c>
       <c r="AP24" s="0">
-        <v>0</v>
+        <v>0.94817080582581115</v>
       </c>
       <c r="AQ24" s="0">
         <v>0</v>
@@ -5001,7 +5001,7 @@
         <v>0</v>
       </c>
       <c r="AT24" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU24" s="0">
         <v>0</v>
@@ -5016,13 +5016,13 @@
         <v>0</v>
       </c>
       <c r="AY24" s="0">
-        <v>0</v>
+        <v>0.97299583141173906</v>
       </c>
       <c r="AZ24" s="0">
         <v>0</v>
       </c>
       <c r="BA24" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB24" s="0">
         <v>0</v>
@@ -5031,7 +5031,7 @@
         <v>0</v>
       </c>
       <c r="BD24" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE24" s="0">
         <v>0</v>
@@ -5061,7 +5061,7 @@
         <v>0</v>
       </c>
       <c r="BN24" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO24" s="0">
         <v>0</v>
@@ -5090,7 +5090,7 @@
         <v>0</v>
       </c>
       <c r="G25" s="0">
-        <v>0</v>
+        <v>0.5601279861384536</v>
       </c>
       <c r="H25" s="0">
         <v>0</v>
@@ -5114,7 +5114,7 @@
         <v>0</v>
       </c>
       <c r="O25" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P25" s="0">
         <v>0</v>
@@ -5129,7 +5129,7 @@
         <v>0</v>
       </c>
       <c r="T25" s="0">
-        <v>0</v>
+        <v>0.73767985289979721</v>
       </c>
       <c r="U25" s="0">
         <v>0</v>
@@ -5138,7 +5138,7 @@
         <v>0</v>
       </c>
       <c r="W25" s="0">
-        <v>0</v>
+        <v>0.66696800807023671</v>
       </c>
       <c r="X25" s="0">
         <v>0</v>
@@ -5171,7 +5171,7 @@
         <v>0</v>
       </c>
       <c r="AH25" s="0">
-        <v>0</v>
+        <v>0.79027900994043221</v>
       </c>
       <c r="AI25" s="0">
         <v>0</v>
@@ -5189,7 +5189,7 @@
         <v>0</v>
       </c>
       <c r="AN25" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO25" s="0">
         <v>0</v>
@@ -5213,7 +5213,7 @@
         <v>0</v>
       </c>
       <c r="AV25" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW25" s="0">
         <v>0</v>
@@ -5237,7 +5237,7 @@
         <v>0</v>
       </c>
       <c r="BD25" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE25" s="0">
         <v>0</v>
@@ -5267,7 +5267,7 @@
         <v>0</v>
       </c>
       <c r="BN25" s="0">
-        <v>0</v>
+        <v>0.97766456123837209</v>
       </c>
       <c r="BO25" s="0">
         <v>0</v>
@@ -5311,7 +5311,7 @@
         <v>0</v>
       </c>
       <c r="L26" s="0">
-        <v>0</v>
+        <v>0.71055214763513308</v>
       </c>
       <c r="M26" s="0">
         <v>0</v>
@@ -5335,7 +5335,7 @@
         <v>0</v>
       </c>
       <c r="T26" s="0">
-        <v>0</v>
+        <v>0.96534313263339122</v>
       </c>
       <c r="U26" s="0">
         <v>0</v>
@@ -5365,7 +5365,7 @@
         <v>0</v>
       </c>
       <c r="AD26" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE26" s="0">
         <v>0</v>
@@ -5380,7 +5380,7 @@
         <v>0</v>
       </c>
       <c r="AI26" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ26" s="0">
         <v>0</v>
@@ -5416,7 +5416,7 @@
         <v>0</v>
       </c>
       <c r="AU26" s="0">
-        <v>0</v>
+        <v>0.91903416787581049</v>
       </c>
       <c r="AV26" s="0">
         <v>0</v>
@@ -5440,7 +5440,7 @@
         <v>0</v>
       </c>
       <c r="BC26" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD26" s="0">
         <v>0</v>
@@ -5484,7 +5484,7 @@
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>0</v>
+        <v>0.55783094542751521</v>
       </c>
       <c r="B27" s="0">
         <v>0</v>
@@ -5493,7 +5493,7 @@
         <v>0</v>
       </c>
       <c r="D27" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E27" s="0">
         <v>0</v>
@@ -5526,7 +5526,7 @@
         <v>0</v>
       </c>
       <c r="O27" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P27" s="0">
         <v>0</v>
@@ -5550,7 +5550,7 @@
         <v>0</v>
       </c>
       <c r="W27" s="0">
-        <v>0</v>
+        <v>0.70190448272383676</v>
       </c>
       <c r="X27" s="0">
         <v>0</v>
@@ -5571,7 +5571,7 @@
         <v>0</v>
       </c>
       <c r="AD27" s="0">
-        <v>0</v>
+        <v>0.5626727159380156</v>
       </c>
       <c r="AE27" s="0">
         <v>0</v>
@@ -5583,7 +5583,7 @@
         <v>0</v>
       </c>
       <c r="AH27" s="0">
-        <v>0</v>
+        <v>0.54811308672727166</v>
       </c>
       <c r="AI27" s="0">
         <v>0</v>
@@ -5613,10 +5613,10 @@
         <v>0</v>
       </c>
       <c r="AR27" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS27" s="0">
-        <v>1</v>
+        <v>0.82772193846915099</v>
       </c>
       <c r="AT27" s="0">
         <v>0</v>
@@ -5634,7 +5634,7 @@
         <v>0</v>
       </c>
       <c r="AY27" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ27" s="0">
         <v>0</v>
@@ -5652,7 +5652,7 @@
         <v>0</v>
       </c>
       <c r="BE27" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF27" s="0">
         <v>0</v>
@@ -5664,13 +5664,13 @@
         <v>0</v>
       </c>
       <c r="BI27" s="0">
-        <v>0</v>
+        <v>0.55964547194725678</v>
       </c>
       <c r="BJ27" s="0">
         <v>0</v>
       </c>
       <c r="BK27" s="0">
-        <v>0</v>
+        <v>0.67648324623475187</v>
       </c>
       <c r="BL27" s="0">
         <v>0</v>
@@ -5679,7 +5679,7 @@
         <v>0</v>
       </c>
       <c r="BN27" s="0">
-        <v>0</v>
+        <v>0.65706045045956807</v>
       </c>
       <c r="BO27" s="0">
         <v>0</v>
@@ -5699,7 +5699,7 @@
         <v>0</v>
       </c>
       <c r="D28" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E28" s="0">
         <v>0</v>
@@ -5720,10 +5720,10 @@
         <v>0</v>
       </c>
       <c r="K28" s="0">
-        <v>0</v>
+        <v>0.57306516603682645</v>
       </c>
       <c r="L28" s="0">
-        <v>0</v>
+        <v>0.70209711322980617</v>
       </c>
       <c r="M28" s="0">
         <v>0</v>
@@ -5735,7 +5735,7 @@
         <v>0</v>
       </c>
       <c r="P28" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q28" s="0">
         <v>0</v>
@@ -5747,7 +5747,7 @@
         <v>0</v>
       </c>
       <c r="T28" s="0">
-        <v>0</v>
+        <v>0.99412515001929602</v>
       </c>
       <c r="U28" s="0">
         <v>0</v>
@@ -5774,10 +5774,10 @@
         <v>0</v>
       </c>
       <c r="AC28" s="0">
-        <v>0</v>
+        <v>0.69205058222363047</v>
       </c>
       <c r="AD28" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE28" s="0">
         <v>0</v>
@@ -5786,7 +5786,7 @@
         <v>0</v>
       </c>
       <c r="AG28" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH28" s="0">
         <v>0</v>
@@ -5896,7 +5896,7 @@
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>0</v>
+        <v>0.53191350215779276</v>
       </c>
       <c r="B29" s="0">
         <v>0</v>
@@ -5905,7 +5905,7 @@
         <v>0</v>
       </c>
       <c r="D29" s="0">
-        <v>0</v>
+        <v>0.55056425230162431</v>
       </c>
       <c r="E29" s="0">
         <v>0</v>
@@ -5947,13 +5947,13 @@
         <v>0</v>
       </c>
       <c r="R29" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S29" s="0">
         <v>0</v>
       </c>
       <c r="T29" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U29" s="0">
         <v>0</v>
@@ -5977,7 +5977,7 @@
         <v>0</v>
       </c>
       <c r="AB29" s="0">
-        <v>0</v>
+        <v>0.96869324992318684</v>
       </c>
       <c r="AC29" s="0">
         <v>0</v>
@@ -5995,13 +5995,13 @@
         <v>0</v>
       </c>
       <c r="AH29" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI29" s="0">
         <v>0</v>
       </c>
       <c r="AJ29" s="0">
-        <v>0</v>
+        <v>0.53359997964773687</v>
       </c>
       <c r="AK29" s="0">
         <v>0</v>
@@ -6144,10 +6144,10 @@
         <v>0</v>
       </c>
       <c r="O30" s="0">
-        <v>0</v>
+        <v>0.6060931434771919</v>
       </c>
       <c r="P30" s="0">
-        <v>0</v>
+        <v>0.99096292763283245</v>
       </c>
       <c r="Q30" s="0">
         <v>0</v>
@@ -6156,7 +6156,7 @@
         <v>0</v>
       </c>
       <c r="S30" s="0">
-        <v>0</v>
+        <v>0.58844452144416981</v>
       </c>
       <c r="T30" s="0">
         <v>0</v>
@@ -6177,13 +6177,13 @@
         <v>0</v>
       </c>
       <c r="Z30" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA30" s="0">
-        <v>0</v>
+        <v>0.54955159011969612</v>
       </c>
       <c r="AB30" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC30" s="0">
         <v>0</v>
@@ -6225,7 +6225,7 @@
         <v>0</v>
       </c>
       <c r="AP30" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ30" s="0">
         <v>0</v>
@@ -6240,7 +6240,7 @@
         <v>0</v>
       </c>
       <c r="AU30" s="0">
-        <v>0</v>
+        <v>0.70417720599456024</v>
       </c>
       <c r="AV30" s="0">
         <v>0</v>
@@ -6350,7 +6350,7 @@
         <v>0</v>
       </c>
       <c r="O31" s="0">
-        <v>0</v>
+        <v>0.86015590200119929</v>
       </c>
       <c r="P31" s="0">
         <v>0</v>
@@ -6365,7 +6365,7 @@
         <v>0</v>
       </c>
       <c r="T31" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U31" s="0">
         <v>0</v>
@@ -6407,7 +6407,7 @@
         <v>0</v>
       </c>
       <c r="AH31" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI31" s="0">
         <v>0</v>
@@ -6464,7 +6464,7 @@
         <v>0</v>
       </c>
       <c r="BA31" s="0">
-        <v>0</v>
+        <v>0.58068715132733673</v>
       </c>
       <c r="BB31" s="0">
         <v>0</v>
@@ -6485,10 +6485,10 @@
         <v>0</v>
       </c>
       <c r="BH31" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BI31" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJ31" s="0">
         <v>0</v>
@@ -6506,7 +6506,7 @@
         <v>0</v>
       </c>
       <c r="BO31" s="0">
-        <v>0</v>
+        <v>0.73501209914911303</v>
       </c>
       <c r="BP31" s="0">
         <v>0</v>
@@ -6646,7 +6646,7 @@
         <v>0</v>
       </c>
       <c r="AS32" s="0">
-        <v>0</v>
+        <v>0.71270109438241902</v>
       </c>
       <c r="AT32" s="0">
         <v>0</v>
@@ -6655,7 +6655,7 @@
         <v>0</v>
       </c>
       <c r="AV32" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW32" s="0">
         <v>0</v>
@@ -6667,7 +6667,7 @@
         <v>0</v>
       </c>
       <c r="AZ32" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA32" s="0">
         <v>0</v>
@@ -6685,7 +6685,7 @@
         <v>0</v>
       </c>
       <c r="BF32" s="0">
-        <v>0</v>
+        <v>0.80209297741038488</v>
       </c>
       <c r="BG32" s="0">
         <v>0</v>
@@ -6765,16 +6765,16 @@
         <v>0</v>
       </c>
       <c r="P33" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q33" s="0">
         <v>0</v>
       </c>
       <c r="R33" s="0">
-        <v>0</v>
+        <v>0.96910095400005014</v>
       </c>
       <c r="S33" s="0">
-        <v>0</v>
+        <v>0.81902583692844089</v>
       </c>
       <c r="T33" s="0">
         <v>0</v>
@@ -6801,7 +6801,7 @@
         <v>0</v>
       </c>
       <c r="AB33" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC33" s="0">
         <v>0</v>
@@ -6834,7 +6834,7 @@
         <v>0</v>
       </c>
       <c r="AM33" s="0">
-        <v>0</v>
+        <v>0.71299954017747558</v>
       </c>
       <c r="AN33" s="0">
         <v>0</v>
@@ -6879,7 +6879,7 @@
         <v>0</v>
       </c>
       <c r="BB33" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC33" s="0">
         <v>0</v>
@@ -6906,7 +6906,7 @@
         <v>0</v>
       </c>
       <c r="BK33" s="0">
-        <v>0</v>
+        <v>0.5285452834214398</v>
       </c>
       <c r="BL33" s="0">
         <v>0</v>
@@ -6921,7 +6921,7 @@
         <v>0</v>
       </c>
       <c r="BP33" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -6929,7 +6929,7 @@
         <v>0</v>
       </c>
       <c r="B34" s="0">
-        <v>0</v>
+        <v>0.90099007171793899</v>
       </c>
       <c r="C34" s="0">
         <v>0</v>
@@ -6965,7 +6965,7 @@
         <v>0</v>
       </c>
       <c r="N34" s="0">
-        <v>0</v>
+        <v>0.76721064781839754</v>
       </c>
       <c r="O34" s="0">
         <v>0</v>
@@ -6998,25 +6998,25 @@
         <v>0</v>
       </c>
       <c r="Y34" s="0">
-        <v>0</v>
+        <v>0.60209828144025135</v>
       </c>
       <c r="Z34" s="0">
         <v>0</v>
       </c>
       <c r="AA34" s="0">
-        <v>0</v>
+        <v>0.7130945816562646</v>
       </c>
       <c r="AB34" s="0">
         <v>0</v>
       </c>
       <c r="AC34" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD34" s="0">
         <v>0</v>
       </c>
       <c r="AE34" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF34" s="0">
         <v>0</v>
@@ -7031,13 +7031,13 @@
         <v>0</v>
       </c>
       <c r="AJ34" s="0">
-        <v>0</v>
+        <v>0.88402039759753259</v>
       </c>
       <c r="AK34" s="0">
         <v>0</v>
       </c>
       <c r="AL34" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM34" s="0">
         <v>0</v>
@@ -7073,7 +7073,7 @@
         <v>0</v>
       </c>
       <c r="AX34" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY34" s="0">
         <v>0</v>
@@ -7097,7 +7097,7 @@
         <v>0</v>
       </c>
       <c r="BF34" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG34" s="0">
         <v>0</v>
@@ -7138,16 +7138,16 @@
         <v>0</v>
       </c>
       <c r="C35" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D35" s="0">
         <v>0</v>
       </c>
       <c r="E35" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F35" s="0">
-        <v>0</v>
+        <v>0.69310294566135111</v>
       </c>
       <c r="G35" s="0">
         <v>0</v>
@@ -7183,7 +7183,7 @@
         <v>0</v>
       </c>
       <c r="R35" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S35" s="0">
         <v>0</v>
@@ -7207,7 +7207,7 @@
         <v>0</v>
       </c>
       <c r="Z35" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA35" s="0">
         <v>0</v>
@@ -7237,7 +7237,7 @@
         <v>0</v>
       </c>
       <c r="AJ35" s="0">
-        <v>0</v>
+        <v>0.50627206425473359</v>
       </c>
       <c r="AK35" s="0">
         <v>0</v>
@@ -7273,7 +7273,7 @@
         <v>0</v>
       </c>
       <c r="AV35" s="0">
-        <v>0</v>
+        <v>0.93522482015243935</v>
       </c>
       <c r="AW35" s="0">
         <v>0</v>
@@ -7300,7 +7300,7 @@
         <v>0</v>
       </c>
       <c r="BE35" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF35" s="0">
         <v>0</v>
@@ -7309,13 +7309,13 @@
         <v>0</v>
       </c>
       <c r="BH35" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BI35" s="0">
         <v>0</v>
       </c>
       <c r="BJ35" s="0">
-        <v>0</v>
+        <v>0.80853537799783237</v>
       </c>
       <c r="BK35" s="0">
         <v>0</v>
@@ -7333,7 +7333,7 @@
         <v>0</v>
       </c>
       <c r="BP35" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -7350,7 +7350,7 @@
         <v>0</v>
       </c>
       <c r="E36" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F36" s="0">
         <v>0</v>
@@ -7359,7 +7359,7 @@
         <v>0</v>
       </c>
       <c r="H36" s="0">
-        <v>0</v>
+        <v>0.86248912354564533</v>
       </c>
       <c r="I36" s="0">
         <v>0</v>
@@ -7395,7 +7395,7 @@
         <v>0</v>
       </c>
       <c r="T36" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U36" s="0">
         <v>0</v>
@@ -7422,7 +7422,7 @@
         <v>0</v>
       </c>
       <c r="AC36" s="0">
-        <v>0</v>
+        <v>0.86403905607353781</v>
       </c>
       <c r="AD36" s="0">
         <v>0</v>
@@ -7437,10 +7437,10 @@
         <v>0</v>
       </c>
       <c r="AH36" s="0">
-        <v>0</v>
+        <v>0.75442883016122553</v>
       </c>
       <c r="AI36" s="0">
-        <v>0</v>
+        <v>0.62974611716068374</v>
       </c>
       <c r="AJ36" s="0">
         <v>0</v>
@@ -7524,7 +7524,7 @@
         <v>0</v>
       </c>
       <c r="BK36" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL36" s="0">
         <v>0</v>
@@ -7547,7 +7547,7 @@
         <v>0</v>
       </c>
       <c r="B37" s="0">
-        <v>0</v>
+        <v>0.62421901625706322</v>
       </c>
       <c r="C37" s="0">
         <v>0</v>
@@ -7559,10 +7559,10 @@
         <v>0</v>
       </c>
       <c r="F37" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G37" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H37" s="0">
         <v>0</v>
@@ -7574,7 +7574,7 @@
         <v>0</v>
       </c>
       <c r="K37" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L37" s="0">
         <v>0</v>
@@ -7679,7 +7679,7 @@
         <v>0</v>
       </c>
       <c r="AT37" s="0">
-        <v>0</v>
+        <v>0.80863524987317703</v>
       </c>
       <c r="AU37" s="0">
         <v>0</v>
@@ -7759,7 +7759,7 @@
         <v>0</v>
       </c>
       <c r="D38" s="0">
-        <v>0</v>
+        <v>0.69120306108546381</v>
       </c>
       <c r="E38" s="0">
         <v>0</v>
@@ -7774,13 +7774,13 @@
         <v>0</v>
       </c>
       <c r="I38" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J38" s="0">
         <v>0</v>
       </c>
       <c r="K38" s="0">
-        <v>0</v>
+        <v>0.93803239341811362</v>
       </c>
       <c r="L38" s="0">
         <v>0</v>
@@ -7792,7 +7792,7 @@
         <v>0</v>
       </c>
       <c r="O38" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P38" s="0">
         <v>0</v>
@@ -7849,7 +7849,7 @@
         <v>0</v>
       </c>
       <c r="AH38" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI38" s="0">
         <v>0</v>
@@ -7864,13 +7864,13 @@
         <v>0</v>
       </c>
       <c r="AM38" s="0">
-        <v>0</v>
+        <v>0.8969379959711532</v>
       </c>
       <c r="AN38" s="0">
         <v>0</v>
       </c>
       <c r="AO38" s="0">
-        <v>0</v>
+        <v>0.77420334247957756</v>
       </c>
       <c r="AP38" s="0">
         <v>0</v>
@@ -7918,7 +7918,7 @@
         <v>0</v>
       </c>
       <c r="BE38" s="0">
-        <v>0</v>
+        <v>0.68962175114617996</v>
       </c>
       <c r="BF38" s="0">
         <v>0</v>
@@ -7992,10 +7992,10 @@
         <v>0</v>
       </c>
       <c r="M39" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N39" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O39" s="0">
         <v>0</v>
@@ -8007,7 +8007,7 @@
         <v>0</v>
       </c>
       <c r="R39" s="0">
-        <v>0</v>
+        <v>0.86171043722912644</v>
       </c>
       <c r="S39" s="0">
         <v>0</v>
@@ -8016,7 +8016,7 @@
         <v>0</v>
       </c>
       <c r="U39" s="0">
-        <v>0</v>
+        <v>0.90415829313411566</v>
       </c>
       <c r="V39" s="0">
         <v>0</v>
@@ -8052,7 +8052,7 @@
         <v>0</v>
       </c>
       <c r="AG39" s="0">
-        <v>0</v>
+        <v>0.75679702933024195</v>
       </c>
       <c r="AH39" s="0">
         <v>0</v>
@@ -8067,7 +8067,7 @@
         <v>0</v>
       </c>
       <c r="AL39" s="0">
-        <v>0</v>
+        <v>0.76158850604865735</v>
       </c>
       <c r="AM39" s="0">
         <v>0</v>
@@ -8091,7 +8091,7 @@
         <v>0</v>
       </c>
       <c r="AT39" s="0">
-        <v>0</v>
+        <v>0.76999348838405179</v>
       </c>
       <c r="AU39" s="0">
         <v>0</v>
@@ -8124,7 +8124,7 @@
         <v>0</v>
       </c>
       <c r="BE39" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF39" s="0">
         <v>0</v>
@@ -8151,7 +8151,7 @@
         <v>0</v>
       </c>
       <c r="BN39" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO39" s="0">
         <v>0</v>
@@ -8183,7 +8183,7 @@
         <v>0</v>
       </c>
       <c r="H40" s="0">
-        <v>0</v>
+        <v>0.61342890890388668</v>
       </c>
       <c r="I40" s="0">
         <v>0</v>
@@ -8204,13 +8204,13 @@
         <v>0</v>
       </c>
       <c r="O40" s="0">
-        <v>0</v>
+        <v>0.69587353531129914</v>
       </c>
       <c r="P40" s="0">
         <v>0</v>
       </c>
       <c r="Q40" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R40" s="0">
         <v>0</v>
@@ -8234,7 +8234,7 @@
         <v>0</v>
       </c>
       <c r="Y40" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z40" s="0">
         <v>0</v>
@@ -8297,7 +8297,7 @@
         <v>0</v>
       </c>
       <c r="AT40" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU40" s="0">
         <v>0</v>
@@ -8324,7 +8324,7 @@
         <v>0</v>
       </c>
       <c r="BC40" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD40" s="0">
         <v>0</v>
@@ -8351,7 +8351,7 @@
         <v>0</v>
       </c>
       <c r="BL40" s="0">
-        <v>0</v>
+        <v>0.92040165894850567</v>
       </c>
       <c r="BM40" s="0">
         <v>0</v>
@@ -8374,7 +8374,7 @@
         <v>0</v>
       </c>
       <c r="C41" s="0">
-        <v>0</v>
+        <v>0.52575763215561722</v>
       </c>
       <c r="D41" s="0">
         <v>0</v>
@@ -8392,7 +8392,7 @@
         <v>0</v>
       </c>
       <c r="I41" s="0">
-        <v>0</v>
+        <v>0.85536428381349483</v>
       </c>
       <c r="J41" s="0">
         <v>0</v>
@@ -8413,7 +8413,7 @@
         <v>0</v>
       </c>
       <c r="P41" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q41" s="0">
         <v>0</v>
@@ -8425,16 +8425,16 @@
         <v>0</v>
       </c>
       <c r="T41" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U41" s="0">
-        <v>0</v>
+        <v>0.86562275829207636</v>
       </c>
       <c r="V41" s="0">
         <v>0</v>
       </c>
       <c r="W41" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X41" s="0">
         <v>0</v>
@@ -8479,7 +8479,7 @@
         <v>0</v>
       </c>
       <c r="AL41" s="0">
-        <v>0</v>
+        <v>0.84642041730904105</v>
       </c>
       <c r="AM41" s="0">
         <v>0</v>
@@ -8527,7 +8527,7 @@
         <v>0</v>
       </c>
       <c r="BB41" s="0">
-        <v>0</v>
+        <v>0.56443986267063662</v>
       </c>
       <c r="BC41" s="0">
         <v>0</v>
@@ -8536,7 +8536,7 @@
         <v>0</v>
       </c>
       <c r="BE41" s="0">
-        <v>0</v>
+        <v>0.87901791050135181</v>
       </c>
       <c r="BF41" s="0">
         <v>0</v>
@@ -8551,7 +8551,7 @@
         <v>0</v>
       </c>
       <c r="BJ41" s="0">
-        <v>0</v>
+        <v>0.90616360763554415</v>
       </c>
       <c r="BK41" s="0">
         <v>0</v>
@@ -8592,7 +8592,7 @@
         <v>0</v>
       </c>
       <c r="G42" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H42" s="0">
         <v>0</v>
@@ -8643,7 +8643,7 @@
         <v>0</v>
       </c>
       <c r="X42" s="0">
-        <v>0</v>
+        <v>0.60375749385008803</v>
       </c>
       <c r="Y42" s="0">
         <v>0</v>
@@ -8661,7 +8661,7 @@
         <v>0</v>
       </c>
       <c r="AD42" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE42" s="0">
         <v>0</v>
@@ -8712,7 +8712,7 @@
         <v>0</v>
       </c>
       <c r="AU42" s="0">
-        <v>0</v>
+        <v>0.86161553924925061</v>
       </c>
       <c r="AV42" s="0">
         <v>0</v>
@@ -8727,13 +8727,13 @@
         <v>0</v>
       </c>
       <c r="AZ42" s="0">
-        <v>1</v>
+        <v>0.94959924159979181</v>
       </c>
       <c r="BA42" s="0">
         <v>0</v>
       </c>
       <c r="BB42" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC42" s="0">
         <v>0</v>
@@ -8742,10 +8742,10 @@
         <v>0</v>
       </c>
       <c r="BE42" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF42" s="0">
-        <v>0</v>
+        <v>0.83887678565096313</v>
       </c>
       <c r="BG42" s="0">
         <v>0</v>
@@ -8763,7 +8763,7 @@
         <v>0</v>
       </c>
       <c r="BL42" s="0">
-        <v>0</v>
+        <v>0.62151231023887255</v>
       </c>
       <c r="BM42" s="0">
         <v>0</v>
@@ -8918,7 +8918,7 @@
         <v>0</v>
       </c>
       <c r="AU43" s="0">
-        <v>0</v>
+        <v>0.97498812610696217</v>
       </c>
       <c r="AV43" s="0">
         <v>0</v>
@@ -8927,7 +8927,7 @@
         <v>0</v>
       </c>
       <c r="AX43" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY43" s="0">
         <v>0</v>
@@ -8942,10 +8942,10 @@
         <v>0</v>
       </c>
       <c r="BC43" s="0">
-        <v>1</v>
+        <v>0.88156564213416488</v>
       </c>
       <c r="BD43" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE43" s="0">
         <v>0</v>
@@ -8960,10 +8960,10 @@
         <v>0</v>
       </c>
       <c r="BI43" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJ43" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BK43" s="0">
         <v>0</v>
@@ -8972,7 +8972,7 @@
         <v>0</v>
       </c>
       <c r="BM43" s="0">
-        <v>0</v>
+        <v>0.5205086417368352</v>
       </c>
       <c r="BN43" s="0">
         <v>0</v>
@@ -8992,7 +8992,7 @@
         <v>0</v>
       </c>
       <c r="C44" s="0">
-        <v>0</v>
+        <v>0.73726103884524596</v>
       </c>
       <c r="D44" s="0">
         <v>0</v>
@@ -9010,7 +9010,7 @@
         <v>0</v>
       </c>
       <c r="I44" s="0">
-        <v>0</v>
+        <v>0.99115334326206295</v>
       </c>
       <c r="J44" s="0">
         <v>0</v>
@@ -9064,7 +9064,7 @@
         <v>0</v>
       </c>
       <c r="AA44" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB44" s="0">
         <v>0</v>
@@ -9118,10 +9118,10 @@
         <v>0</v>
       </c>
       <c r="AS44" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT44" s="0">
-        <v>0</v>
+        <v>0.76170176940844414</v>
       </c>
       <c r="AU44" s="0">
         <v>0</v>
@@ -9157,7 +9157,7 @@
         <v>0</v>
       </c>
       <c r="BF44" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG44" s="0">
         <v>0</v>
@@ -9175,7 +9175,7 @@
         <v>0</v>
       </c>
       <c r="BL44" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM44" s="0">
         <v>0</v>
@@ -9270,7 +9270,7 @@
         <v>0</v>
       </c>
       <c r="AA45" s="0">
-        <v>1</v>
+        <v>0.54331668665720412</v>
       </c>
       <c r="AB45" s="0">
         <v>0</v>
@@ -9285,7 +9285,7 @@
         <v>0</v>
       </c>
       <c r="AF45" s="0">
-        <v>0</v>
+        <v>0.57454426938986625</v>
       </c>
       <c r="AG45" s="0">
         <v>0</v>
@@ -9321,13 +9321,13 @@
         <v>0</v>
       </c>
       <c r="AR45" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS45" s="0">
         <v>0</v>
       </c>
       <c r="AT45" s="0">
-        <v>0</v>
+        <v>0.83364736338983958</v>
       </c>
       <c r="AU45" s="0">
         <v>0</v>
@@ -9336,7 +9336,7 @@
         <v>0</v>
       </c>
       <c r="AW45" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX45" s="0">
         <v>0</v>
@@ -9387,7 +9387,7 @@
         <v>0</v>
       </c>
       <c r="BN45" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO45" s="0">
         <v>0</v>
@@ -9407,7 +9407,7 @@
         <v>0</v>
       </c>
       <c r="D46" s="0">
-        <v>0</v>
+        <v>0.64672591082137854</v>
       </c>
       <c r="E46" s="0">
         <v>0</v>
@@ -9455,7 +9455,7 @@
         <v>0</v>
       </c>
       <c r="T46" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U46" s="0">
         <v>0</v>
@@ -9467,7 +9467,7 @@
         <v>0</v>
       </c>
       <c r="X46" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y46" s="0">
         <v>0</v>
@@ -9506,16 +9506,16 @@
         <v>0</v>
       </c>
       <c r="AK46" s="0">
-        <v>0</v>
+        <v>0.51811608680908083</v>
       </c>
       <c r="AL46" s="0">
         <v>0</v>
       </c>
       <c r="AM46" s="0">
-        <v>0</v>
+        <v>0.61871333375097004</v>
       </c>
       <c r="AN46" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO46" s="0">
         <v>0</v>
@@ -9527,10 +9527,10 @@
         <v>0</v>
       </c>
       <c r="AR46" s="0">
-        <v>0</v>
+        <v>0.80813794387739368</v>
       </c>
       <c r="AS46" s="0">
-        <v>0</v>
+        <v>0.6502947576736553</v>
       </c>
       <c r="AT46" s="0">
         <v>0</v>
@@ -9539,7 +9539,7 @@
         <v>0</v>
       </c>
       <c r="AV46" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW46" s="0">
         <v>0</v>
@@ -9572,7 +9572,7 @@
         <v>0</v>
       </c>
       <c r="BG46" s="0">
-        <v>0</v>
+        <v>0.88827270391454249</v>
       </c>
       <c r="BH46" s="0">
         <v>0</v>
@@ -9604,7 +9604,7 @@
     </row>
     <row r="47">
       <c r="A47" s="0">
-        <v>0</v>
+        <v>0.6427025066595613</v>
       </c>
       <c r="B47" s="0">
         <v>0</v>
@@ -9622,7 +9622,7 @@
         <v>0</v>
       </c>
       <c r="G47" s="0">
-        <v>0</v>
+        <v>0.53145165192814225</v>
       </c>
       <c r="H47" s="0">
         <v>0</v>
@@ -9646,7 +9646,7 @@
         <v>0</v>
       </c>
       <c r="O47" s="0">
-        <v>0</v>
+        <v>0.78103745160293014</v>
       </c>
       <c r="P47" s="0">
         <v>0</v>
@@ -9664,7 +9664,7 @@
         <v>0</v>
       </c>
       <c r="U47" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V47" s="0">
         <v>0</v>
@@ -9679,7 +9679,7 @@
         <v>0</v>
       </c>
       <c r="Z47" s="0">
-        <v>0</v>
+        <v>0.63335694352638705</v>
       </c>
       <c r="AA47" s="0">
         <v>0</v>
@@ -9691,7 +9691,7 @@
         <v>0</v>
       </c>
       <c r="AD47" s="0">
-        <v>0</v>
+        <v>0.82875188333669492</v>
       </c>
       <c r="AE47" s="0">
         <v>0</v>
@@ -9727,10 +9727,10 @@
         <v>0</v>
       </c>
       <c r="AP47" s="0">
-        <v>0</v>
+        <v>0.82707226858442029</v>
       </c>
       <c r="AQ47" s="0">
-        <v>0</v>
+        <v>0.77648146659454764</v>
       </c>
       <c r="AR47" s="0">
         <v>0</v>
@@ -9745,7 +9745,7 @@
         <v>0</v>
       </c>
       <c r="AV47" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW47" s="0">
         <v>0</v>
@@ -9790,7 +9790,7 @@
         <v>0</v>
       </c>
       <c r="BK47" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL47" s="0">
         <v>0</v>
@@ -9882,7 +9882,7 @@
         <v>0</v>
       </c>
       <c r="Y48" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z48" s="0">
         <v>0</v>
@@ -9903,7 +9903,7 @@
         <v>0</v>
       </c>
       <c r="AF48" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG48" s="0">
         <v>0</v>
@@ -9912,7 +9912,7 @@
         <v>0</v>
       </c>
       <c r="AI48" s="0">
-        <v>0</v>
+        <v>0.98826831017844574</v>
       </c>
       <c r="AJ48" s="0">
         <v>0</v>
@@ -9945,10 +9945,10 @@
         <v>0</v>
       </c>
       <c r="AT48" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU48" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV48" s="0">
         <v>0</v>
@@ -9957,7 +9957,7 @@
         <v>0</v>
       </c>
       <c r="AX48" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY48" s="0">
         <v>0</v>
@@ -9987,7 +9987,7 @@
         <v>0</v>
       </c>
       <c r="BH48" s="0">
-        <v>0</v>
+        <v>0.7546068631805295</v>
       </c>
       <c r="BI48" s="0">
         <v>0</v>
@@ -10022,7 +10022,7 @@
         <v>0</v>
       </c>
       <c r="C49" s="0">
-        <v>0</v>
+        <v>0.91725930704801106</v>
       </c>
       <c r="D49" s="0">
         <v>0</v>
@@ -10049,7 +10049,7 @@
         <v>0</v>
       </c>
       <c r="L49" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M49" s="0">
         <v>0</v>
@@ -10082,7 +10082,7 @@
         <v>0</v>
       </c>
       <c r="W49" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X49" s="0">
         <v>0</v>
@@ -10148,7 +10148,7 @@
         <v>0</v>
       </c>
       <c r="AS49" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT49" s="0">
         <v>0</v>
@@ -10163,7 +10163,7 @@
         <v>0</v>
       </c>
       <c r="AX49" s="0">
-        <v>0</v>
+        <v>0.54658612428886455</v>
       </c>
       <c r="AY49" s="0">
         <v>0</v>
@@ -10172,7 +10172,7 @@
         <v>0</v>
       </c>
       <c r="BA49" s="0">
-        <v>0</v>
+        <v>0.67400375981724614</v>
       </c>
       <c r="BB49" s="0">
         <v>0</v>
@@ -10181,13 +10181,13 @@
         <v>0</v>
       </c>
       <c r="BD49" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE49" s="0">
         <v>0</v>
       </c>
       <c r="BF49" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG49" s="0">
         <v>0</v>
@@ -10234,7 +10234,7 @@
         <v>0</v>
       </c>
       <c r="E50" s="0">
-        <v>0</v>
+        <v>0.97758810178651356</v>
       </c>
       <c r="F50" s="0">
         <v>0</v>
@@ -10249,7 +10249,7 @@
         <v>0</v>
       </c>
       <c r="J50" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K50" s="0">
         <v>0</v>
@@ -10282,7 +10282,7 @@
         <v>0</v>
       </c>
       <c r="U50" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V50" s="0">
         <v>0</v>
@@ -10321,7 +10321,7 @@
         <v>0</v>
       </c>
       <c r="AH50" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI50" s="0">
         <v>0</v>
@@ -10348,7 +10348,7 @@
         <v>0</v>
       </c>
       <c r="AQ50" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR50" s="0">
         <v>0</v>
@@ -10363,16 +10363,16 @@
         <v>0</v>
       </c>
       <c r="AV50" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW50" s="0">
-        <v>0</v>
+        <v>0.88166014967242878</v>
       </c>
       <c r="AX50" s="0">
         <v>0</v>
       </c>
       <c r="AY50" s="0">
-        <v>0</v>
+        <v>0.93875670065193617</v>
       </c>
       <c r="AZ50" s="0">
         <v>0</v>
@@ -10420,7 +10420,7 @@
         <v>0</v>
       </c>
       <c r="BO50" s="0">
-        <v>0</v>
+        <v>0.94745349836883186</v>
       </c>
       <c r="BP50" s="0">
         <v>0</v>
@@ -10443,7 +10443,7 @@
         <v>0</v>
       </c>
       <c r="F51" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G51" s="0">
         <v>0</v>
@@ -10458,7 +10458,7 @@
         <v>0</v>
       </c>
       <c r="K51" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L51" s="0">
         <v>0</v>
@@ -10497,7 +10497,7 @@
         <v>0</v>
       </c>
       <c r="X51" s="0">
-        <v>0</v>
+        <v>0.91796583908031648</v>
       </c>
       <c r="Y51" s="0">
         <v>0</v>
@@ -10506,7 +10506,7 @@
         <v>0</v>
       </c>
       <c r="AA51" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB51" s="0">
         <v>0</v>
@@ -10575,7 +10575,7 @@
         <v>0</v>
       </c>
       <c r="AX51" s="0">
-        <v>0</v>
+        <v>0.95064327884037358</v>
       </c>
       <c r="AY51" s="0">
         <v>0</v>
@@ -10590,7 +10590,7 @@
         <v>0</v>
       </c>
       <c r="BC51" s="0">
-        <v>0</v>
+        <v>0.63382531321005298</v>
       </c>
       <c r="BD51" s="0">
         <v>0</v>
@@ -10611,7 +10611,7 @@
         <v>0</v>
       </c>
       <c r="BJ51" s="0">
-        <v>0</v>
+        <v>0.95323794512470084</v>
       </c>
       <c r="BK51" s="0">
         <v>0</v>
@@ -10629,12 +10629,12 @@
         <v>0</v>
       </c>
       <c r="BP51" s="0">
-        <v>0</v>
+        <v>0.99311489113998086</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B52" s="0">
         <v>0</v>
@@ -10655,7 +10655,7 @@
         <v>0</v>
       </c>
       <c r="H52" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I52" s="0">
         <v>0</v>
@@ -10727,7 +10727,7 @@
         <v>0</v>
       </c>
       <c r="AF52" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG52" s="0">
         <v>0</v>
@@ -10757,7 +10757,7 @@
         <v>0</v>
       </c>
       <c r="AP52" s="0">
-        <v>1</v>
+        <v>0.9989875595329506</v>
       </c>
       <c r="AQ52" s="0">
         <v>0</v>
@@ -10790,7 +10790,7 @@
         <v>0</v>
       </c>
       <c r="BA52" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB52" s="0">
         <v>0</v>
@@ -10808,7 +10808,7 @@
         <v>0</v>
       </c>
       <c r="BG52" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH52" s="0">
         <v>0</v>
@@ -10820,7 +10820,7 @@
         <v>0</v>
       </c>
       <c r="BK52" s="0">
-        <v>0</v>
+        <v>0.5036940734359413</v>
       </c>
       <c r="BL52" s="0">
         <v>0</v>
@@ -10876,7 +10876,7 @@
         <v>0</v>
       </c>
       <c r="M53" s="0">
-        <v>1</v>
+        <v>0.79198154354480232</v>
       </c>
       <c r="N53" s="0">
         <v>0</v>
@@ -10894,13 +10894,13 @@
         <v>0</v>
       </c>
       <c r="S53" s="0">
-        <v>0</v>
+        <v>0.69705066355618528</v>
       </c>
       <c r="T53" s="0">
         <v>0</v>
       </c>
       <c r="U53" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V53" s="0">
         <v>0</v>
@@ -10909,7 +10909,7 @@
         <v>0</v>
       </c>
       <c r="X53" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y53" s="0">
         <v>0</v>
@@ -10930,7 +10930,7 @@
         <v>0</v>
       </c>
       <c r="AE53" s="0">
-        <v>0</v>
+        <v>0.51448830865020279</v>
       </c>
       <c r="AF53" s="0">
         <v>0</v>
@@ -10984,7 +10984,7 @@
         <v>0</v>
       </c>
       <c r="AW53" s="0">
-        <v>0</v>
+        <v>0.81015613351958304</v>
       </c>
       <c r="AX53" s="0">
         <v>0</v>
@@ -10993,7 +10993,7 @@
         <v>0</v>
       </c>
       <c r="AZ53" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA53" s="0">
         <v>0</v>
@@ -11073,7 +11073,7 @@
         <v>0</v>
       </c>
       <c r="J54" s="0">
-        <v>0</v>
+        <v>0.97771854672759684</v>
       </c>
       <c r="K54" s="0">
         <v>0</v>
@@ -11097,7 +11097,7 @@
         <v>0</v>
       </c>
       <c r="R54" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S54" s="0">
         <v>0</v>
@@ -11142,7 +11142,7 @@
         <v>0</v>
       </c>
       <c r="AG54" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH54" s="0">
         <v>0</v>
@@ -11166,10 +11166,10 @@
         <v>0</v>
       </c>
       <c r="AO54" s="0">
-        <v>0</v>
+        <v>0.63805913676292292</v>
       </c>
       <c r="AP54" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ54" s="0">
         <v>0</v>
@@ -11208,7 +11208,7 @@
         <v>0</v>
       </c>
       <c r="BC54" s="0">
-        <v>1</v>
+        <v>0.6964953036292012</v>
       </c>
       <c r="BD54" s="0">
         <v>0</v>
@@ -11300,10 +11300,10 @@
         <v>0</v>
       </c>
       <c r="Q55" s="0">
-        <v>0</v>
+        <v>0.74384219924051798</v>
       </c>
       <c r="R55" s="0">
-        <v>0</v>
+        <v>0.66491640241166072</v>
       </c>
       <c r="S55" s="0">
         <v>0</v>
@@ -11315,7 +11315,7 @@
         <v>0</v>
       </c>
       <c r="V55" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W55" s="0">
         <v>0</v>
@@ -11327,7 +11327,7 @@
         <v>0</v>
       </c>
       <c r="Z55" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA55" s="0">
         <v>0</v>
@@ -11369,7 +11369,7 @@
         <v>0</v>
       </c>
       <c r="AN55" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO55" s="0">
         <v>0</v>
@@ -11378,7 +11378,7 @@
         <v>0</v>
       </c>
       <c r="AQ55" s="0">
-        <v>1</v>
+        <v>0.67554839882457529</v>
       </c>
       <c r="AR55" s="0">
         <v>0</v>
@@ -11402,7 +11402,7 @@
         <v>0</v>
       </c>
       <c r="AY55" s="0">
-        <v>0</v>
+        <v>0.56062265834665581</v>
       </c>
       <c r="AZ55" s="0">
         <v>0</v>
@@ -11411,7 +11411,7 @@
         <v>0</v>
       </c>
       <c r="BB55" s="0">
-        <v>1</v>
+        <v>0.98570991322687418</v>
       </c>
       <c r="BC55" s="0">
         <v>0</v>
@@ -11420,7 +11420,7 @@
         <v>0</v>
       </c>
       <c r="BE55" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF55" s="0">
         <v>0</v>
@@ -11432,7 +11432,7 @@
         <v>0</v>
       </c>
       <c r="BI55" s="0">
-        <v>0</v>
+        <v>0.82391229515480291</v>
       </c>
       <c r="BJ55" s="0">
         <v>0</v>
@@ -11458,7 +11458,7 @@
     </row>
     <row r="56">
       <c r="A56" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B56" s="0">
         <v>0</v>
@@ -11467,7 +11467,7 @@
         <v>0</v>
       </c>
       <c r="D56" s="0">
-        <v>0</v>
+        <v>0.75576162966933458</v>
       </c>
       <c r="E56" s="0">
         <v>0</v>
@@ -11494,7 +11494,7 @@
         <v>0</v>
       </c>
       <c r="M56" s="0">
-        <v>0</v>
+        <v>0.79423946609522411</v>
       </c>
       <c r="N56" s="0">
         <v>0</v>
@@ -11506,7 +11506,7 @@
         <v>0</v>
       </c>
       <c r="Q56" s="0">
-        <v>0</v>
+        <v>0.92915662703470137</v>
       </c>
       <c r="R56" s="0">
         <v>0</v>
@@ -11527,10 +11527,10 @@
         <v>0</v>
       </c>
       <c r="X56" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y56" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z56" s="0">
         <v>0</v>
@@ -11584,7 +11584,7 @@
         <v>0</v>
       </c>
       <c r="AQ56" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR56" s="0">
         <v>0</v>
@@ -11602,7 +11602,7 @@
         <v>0</v>
       </c>
       <c r="AW56" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX56" s="0">
         <v>0</v>
@@ -11626,7 +11626,7 @@
         <v>0</v>
       </c>
       <c r="BE56" s="0">
-        <v>0</v>
+        <v>0.95112478785987387</v>
       </c>
       <c r="BF56" s="0">
         <v>0</v>
@@ -11715,7 +11715,7 @@
         <v>0</v>
       </c>
       <c r="R57" s="0">
-        <v>0</v>
+        <v>0.50292282512704767</v>
       </c>
       <c r="S57" s="0">
         <v>0</v>
@@ -11742,7 +11742,7 @@
         <v>0</v>
       </c>
       <c r="AA57" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB57" s="0">
         <v>0</v>
@@ -11766,7 +11766,7 @@
         <v>0</v>
       </c>
       <c r="AI57" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ57" s="0">
         <v>0</v>
@@ -11775,19 +11775,19 @@
         <v>0</v>
       </c>
       <c r="AL57" s="0">
-        <v>0</v>
+        <v>0.84707039320544597</v>
       </c>
       <c r="AM57" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN57" s="0">
         <v>0</v>
       </c>
       <c r="AO57" s="0">
-        <v>0</v>
+        <v>0.71291521818953751</v>
       </c>
       <c r="AP57" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ57" s="0">
         <v>0</v>
@@ -11826,10 +11826,10 @@
         <v>0</v>
       </c>
       <c r="BC57" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD57" s="0">
-        <v>0</v>
+        <v>0.9506220341921785</v>
       </c>
       <c r="BE57" s="0">
         <v>0</v>
@@ -11888,7 +11888,7 @@
         <v>0</v>
       </c>
       <c r="G58" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H58" s="0">
         <v>0</v>
@@ -11933,7 +11933,7 @@
         <v>0</v>
       </c>
       <c r="V58" s="0">
-        <v>0</v>
+        <v>0.60242592045525245</v>
       </c>
       <c r="W58" s="0">
         <v>0</v>
@@ -11963,13 +11963,13 @@
         <v>0</v>
       </c>
       <c r="AF58" s="0">
-        <v>0</v>
+        <v>0.59783259698169178</v>
       </c>
       <c r="AG58" s="0">
         <v>0</v>
       </c>
       <c r="AH58" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI58" s="0">
         <v>0</v>
@@ -11993,13 +11993,13 @@
         <v>0</v>
       </c>
       <c r="AP58" s="0">
-        <v>0</v>
+        <v>0.77580755518889655</v>
       </c>
       <c r="AQ58" s="0">
         <v>0</v>
       </c>
       <c r="AR58" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS58" s="0">
         <v>0</v>
@@ -12014,7 +12014,7 @@
         <v>0</v>
       </c>
       <c r="AW58" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX58" s="0">
         <v>0</v>
@@ -12047,7 +12047,7 @@
         <v>0</v>
       </c>
       <c r="BH58" s="0">
-        <v>0</v>
+        <v>0.97431467870386301</v>
       </c>
       <c r="BI58" s="0">
         <v>0</v>
@@ -12106,7 +12106,7 @@
         <v>0</v>
       </c>
       <c r="K59" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L59" s="0">
         <v>0</v>
@@ -12211,7 +12211,7 @@
         <v>0</v>
       </c>
       <c r="AT59" s="0">
-        <v>0</v>
+        <v>0.79793288402892615</v>
       </c>
       <c r="AU59" s="0">
         <v>0</v>
@@ -12229,7 +12229,7 @@
         <v>0</v>
       </c>
       <c r="AZ59" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA59" s="0">
         <v>0</v>
@@ -12256,7 +12256,7 @@
         <v>0</v>
       </c>
       <c r="BI59" s="0">
-        <v>0</v>
+        <v>0.85040411114324255</v>
       </c>
       <c r="BJ59" s="0">
         <v>0</v>
@@ -12312,7 +12312,7 @@
         <v>0</v>
       </c>
       <c r="K60" s="0">
-        <v>0</v>
+        <v>0.57753315990179965</v>
       </c>
       <c r="L60" s="0">
         <v>0</v>
@@ -12342,7 +12342,7 @@
         <v>0</v>
       </c>
       <c r="U60" s="0">
-        <v>0</v>
+        <v>0.76150889410070077</v>
       </c>
       <c r="V60" s="0">
         <v>0</v>
@@ -12372,7 +12372,7 @@
         <v>0</v>
       </c>
       <c r="AE60" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF60" s="0">
         <v>0</v>
@@ -12384,7 +12384,7 @@
         <v>0</v>
       </c>
       <c r="AI60" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ60" s="0">
         <v>0</v>
@@ -12423,7 +12423,7 @@
         <v>0</v>
       </c>
       <c r="AV60" s="0">
-        <v>0</v>
+        <v>0.50151418957551086</v>
       </c>
       <c r="AW60" s="0">
         <v>0</v>
@@ -12453,7 +12453,7 @@
         <v>0</v>
       </c>
       <c r="BF60" s="0">
-        <v>0</v>
+        <v>0.72337447138586897</v>
       </c>
       <c r="BG60" s="0">
         <v>0</v>
@@ -12483,7 +12483,7 @@
         <v>0</v>
       </c>
       <c r="BP60" s="0">
-        <v>0</v>
+        <v>0.93789911440514684</v>
       </c>
     </row>
     <row r="61">
@@ -12494,7 +12494,7 @@
         <v>0</v>
       </c>
       <c r="C61" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D61" s="0">
         <v>0</v>
@@ -12509,7 +12509,7 @@
         <v>0</v>
       </c>
       <c r="H61" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I61" s="0">
         <v>0</v>
@@ -12524,7 +12524,7 @@
         <v>0</v>
       </c>
       <c r="M61" s="0">
-        <v>0</v>
+        <v>0.60461658458864576</v>
       </c>
       <c r="N61" s="0">
         <v>0</v>
@@ -12533,7 +12533,7 @@
         <v>0</v>
       </c>
       <c r="P61" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q61" s="0">
         <v>0</v>
@@ -12566,7 +12566,7 @@
         <v>0</v>
       </c>
       <c r="AA61" s="0">
-        <v>0</v>
+        <v>0.58303607835360516</v>
       </c>
       <c r="AB61" s="0">
         <v>0</v>
@@ -12578,7 +12578,7 @@
         <v>0</v>
       </c>
       <c r="AE61" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF61" s="0">
         <v>0</v>
@@ -12614,7 +12614,7 @@
         <v>0</v>
       </c>
       <c r="AQ61" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR61" s="0">
         <v>0</v>
@@ -12650,7 +12650,7 @@
         <v>0</v>
       </c>
       <c r="BC61" s="0">
-        <v>0</v>
+        <v>0.9755513849406996</v>
       </c>
       <c r="BD61" s="0">
         <v>0</v>
@@ -12662,7 +12662,7 @@
         <v>0</v>
       </c>
       <c r="BG61" s="0">
-        <v>0</v>
+        <v>0.66638963578350552</v>
       </c>
       <c r="BH61" s="0">
         <v>0</v>
@@ -12674,7 +12674,7 @@
         <v>0</v>
       </c>
       <c r="BK61" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL61" s="0">
         <v>0</v>
@@ -12709,7 +12709,7 @@
         <v>0</v>
       </c>
       <c r="F62" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G62" s="0">
         <v>0</v>
@@ -12739,7 +12739,7 @@
         <v>0</v>
       </c>
       <c r="P62" s="0">
-        <v>0</v>
+        <v>0.67297955466415149</v>
       </c>
       <c r="Q62" s="0">
         <v>0</v>
@@ -12748,7 +12748,7 @@
         <v>0</v>
       </c>
       <c r="S62" s="0">
-        <v>0</v>
+        <v>0.73545257897111327</v>
       </c>
       <c r="T62" s="0">
         <v>0</v>
@@ -12796,7 +12796,7 @@
         <v>0</v>
       </c>
       <c r="AI62" s="0">
-        <v>0</v>
+        <v>0.96322965188121157</v>
       </c>
       <c r="AJ62" s="0">
         <v>0</v>
@@ -12814,13 +12814,13 @@
         <v>0</v>
       </c>
       <c r="AO62" s="0">
-        <v>0</v>
+        <v>0.54725637591399345</v>
       </c>
       <c r="AP62" s="0">
         <v>0</v>
       </c>
       <c r="AQ62" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR62" s="0">
         <v>0</v>
@@ -12844,7 +12844,7 @@
         <v>0</v>
       </c>
       <c r="AY62" s="0">
-        <v>0</v>
+        <v>0.51163690054243638</v>
       </c>
       <c r="AZ62" s="0">
         <v>0</v>
@@ -12978,7 +12978,7 @@
         <v>0</v>
       </c>
       <c r="AA63" s="0">
-        <v>0</v>
+        <v>0.69232688779718221</v>
       </c>
       <c r="AB63" s="0">
         <v>0</v>
@@ -12996,7 +12996,7 @@
         <v>0</v>
       </c>
       <c r="AG63" s="0">
-        <v>0</v>
+        <v>0.80732535837513564</v>
       </c>
       <c r="AH63" s="0">
         <v>0</v>
@@ -13005,7 +13005,7 @@
         <v>0</v>
       </c>
       <c r="AJ63" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK63" s="0">
         <v>0</v>
@@ -13038,7 +13038,7 @@
         <v>0</v>
       </c>
       <c r="AU63" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV63" s="0">
         <v>0</v>
@@ -13053,7 +13053,7 @@
         <v>0</v>
       </c>
       <c r="AZ63" s="0">
-        <v>0</v>
+        <v>0.85107544866186391</v>
       </c>
       <c r="BA63" s="0">
         <v>0</v>
@@ -13080,7 +13080,7 @@
         <v>0</v>
       </c>
       <c r="BI63" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJ63" s="0">
         <v>0</v>
@@ -13157,7 +13157,7 @@
         <v>0</v>
       </c>
       <c r="R64" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S64" s="0">
         <v>0</v>
@@ -13223,19 +13223,19 @@
         <v>0</v>
       </c>
       <c r="AN64" s="0">
-        <v>0</v>
+        <v>0.69708402347144349</v>
       </c>
       <c r="AO64" s="0">
         <v>0</v>
       </c>
       <c r="AP64" s="0">
-        <v>0</v>
+        <v>0.76860999130379448</v>
       </c>
       <c r="AQ64" s="0">
         <v>0</v>
       </c>
       <c r="AR64" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS64" s="0">
         <v>0</v>
@@ -13298,7 +13298,7 @@
         <v>0</v>
       </c>
       <c r="BM64" s="0">
-        <v>0</v>
+        <v>0.87180201926984768</v>
       </c>
       <c r="BN64" s="0">
         <v>0</v>
@@ -13339,13 +13339,13 @@
         <v>0</v>
       </c>
       <c r="J65" s="0">
-        <v>1</v>
+        <v>0.58343669785594698</v>
       </c>
       <c r="K65" s="0">
-        <v>1</v>
+        <v>0.84737778675366782</v>
       </c>
       <c r="L65" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M65" s="0">
         <v>0</v>
@@ -13438,7 +13438,7 @@
         <v>0</v>
       </c>
       <c r="AQ65" s="0">
-        <v>0</v>
+        <v>0.6046001550914617</v>
       </c>
       <c r="AR65" s="0">
         <v>0</v>
@@ -13501,24 +13501,24 @@
         <v>0</v>
       </c>
       <c r="BL65" s="0">
-        <v>0</v>
+        <v>0.89615175216663168</v>
       </c>
       <c r="BM65" s="0">
         <v>0</v>
       </c>
       <c r="BN65" s="0">
-        <v>0</v>
+        <v>0.6807736754032474</v>
       </c>
       <c r="BO65" s="0">
         <v>0</v>
       </c>
       <c r="BP65" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B66" s="0">
         <v>0</v>
@@ -13587,16 +13587,16 @@
         <v>0</v>
       </c>
       <c r="X66" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y66" s="0">
-        <v>0</v>
+        <v>0.84024845977743812</v>
       </c>
       <c r="Z66" s="0">
         <v>0</v>
       </c>
       <c r="AA66" s="0">
-        <v>0</v>
+        <v>0.63763956700965307</v>
       </c>
       <c r="AB66" s="0">
         <v>0</v>
@@ -13632,7 +13632,7 @@
         <v>0</v>
       </c>
       <c r="AM66" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN66" s="0">
         <v>0</v>
@@ -13650,7 +13650,7 @@
         <v>0</v>
       </c>
       <c r="AS66" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT66" s="0">
         <v>0</v>
@@ -13710,13 +13710,13 @@
         <v>0</v>
       </c>
       <c r="BM66" s="0">
-        <v>0</v>
+        <v>0.7741895475273517</v>
       </c>
       <c r="BN66" s="0">
         <v>0</v>
       </c>
       <c r="BO66" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP66" s="0">
         <v>0</v>
@@ -13754,10 +13754,10 @@
         <v>0</v>
       </c>
       <c r="K67" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L67" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M67" s="0">
         <v>0</v>
@@ -13814,7 +13814,7 @@
         <v>0</v>
       </c>
       <c r="AE67" s="0">
-        <v>0</v>
+        <v>0.61707725004326286</v>
       </c>
       <c r="AF67" s="0">
         <v>0</v>
@@ -13871,7 +13871,7 @@
         <v>0</v>
       </c>
       <c r="AX67" s="0">
-        <v>0</v>
+        <v>0.62878783942461081</v>
       </c>
       <c r="AY67" s="0">
         <v>0</v>
@@ -13919,7 +13919,7 @@
         <v>0</v>
       </c>
       <c r="BN67" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO67" s="0">
         <v>0</v>
@@ -14026,13 +14026,13 @@
         <v>0</v>
       </c>
       <c r="AG68" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH68" s="0">
         <v>0</v>
       </c>
       <c r="AI68" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ68" s="0">
         <v>0</v>
@@ -14080,7 +14080,7 @@
         <v>0</v>
       </c>
       <c r="AY68" s="0">
-        <v>0</v>
+        <v>0.93645343205201748</v>
       </c>
       <c r="AZ68" s="0">
         <v>0</v>
@@ -14107,7 +14107,7 @@
         <v>0</v>
       </c>
       <c r="BH68" s="0">
-        <v>0</v>
+        <v>0.62356951117480475</v>
       </c>
       <c r="BI68" s="0">
         <v>0</v>
@@ -14122,7 +14122,7 @@
         <v>0</v>
       </c>
       <c r="BM68" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN68" s="0">
         <v>0</v>

--- a/braph2genesis/pipelines/connectivity/example data CON (DTI)/xls/GroupName2/subject32.xlsx
+++ b/braph2genesis/pipelines/connectivity/example data CON (DTI)/xls/GroupName2/subject32.xlsx
@@ -146,7 +146,7 @@
         <v>0</v>
       </c>
       <c r="G1" s="0">
-        <v>0.58681215779402085</v>
+        <v>0.83367850075631211</v>
       </c>
       <c r="H1" s="0">
         <v>0</v>
@@ -173,7 +173,7 @@
         <v>0</v>
       </c>
       <c r="P1" s="0">
-        <v>0.73803827134100009</v>
+        <v>0.80546468036762431</v>
       </c>
       <c r="Q1" s="0">
         <v>0</v>
@@ -340,7 +340,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="0">
-        <v>0.70609752571689932</v>
+        <v>0.79594628773323817</v>
       </c>
       <c r="D2" s="0">
         <v>0</v>
@@ -355,7 +355,7 @@
         <v>0</v>
       </c>
       <c r="H2" s="0">
-        <v>0.79763698021382989</v>
+        <v>0.97421105818463105</v>
       </c>
       <c r="I2" s="0">
         <v>0</v>
@@ -669,7 +669,7 @@
         <v>0</v>
       </c>
       <c r="AR3" s="0">
-        <v>0.6103179015919955</v>
+        <v>0.73726103884524596</v>
       </c>
       <c r="AS3" s="0">
         <v>0</v>
@@ -684,7 +684,7 @@
         <v>0</v>
       </c>
       <c r="AW3" s="0">
-        <v>0.65171164815919158</v>
+        <v>0.91725930704801106</v>
       </c>
       <c r="AX3" s="0">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="O5" s="0">
-        <v>0.61705142625856868</v>
+        <v>0.73385125611160718</v>
       </c>
       <c r="P5" s="0">
         <v>0</v>
@@ -1099,7 +1099,7 @@
         <v>0</v>
       </c>
       <c r="AX5" s="0">
-        <v>0.70909073317061599</v>
+        <v>0.97758810178651356</v>
       </c>
       <c r="AY5" s="0">
         <v>0</v>
@@ -1427,7 +1427,7 @@
         <v>0</v>
       </c>
       <c r="V7" s="0">
-        <v>0.75772108024712914</v>
+        <v>0.81990362286020391</v>
       </c>
       <c r="W7" s="0">
         <v>0</v>
@@ -1597,7 +1597,7 @@
         <v>0</v>
       </c>
       <c r="J8" s="0">
-        <v>0.82786985395499402</v>
+        <v>0.85508501224711653</v>
       </c>
       <c r="K8" s="0">
         <v>0</v>
@@ -1615,7 +1615,7 @@
         <v>0</v>
       </c>
       <c r="P8" s="0">
-        <v>0.73007378045336457</v>
+        <v>0.9049259404877239</v>
       </c>
       <c r="Q8" s="0">
         <v>0</v>
@@ -1687,7 +1687,7 @@
         <v>0</v>
       </c>
       <c r="AN8" s="0">
-        <v>0.53540973529255886</v>
+        <v>0.61342890890388668</v>
       </c>
       <c r="AO8" s="0">
         <v>0</v>
@@ -1896,7 +1896,7 @@
         <v>0</v>
       </c>
       <c r="AO9" s="0">
-        <v>0.6579867426499203</v>
+        <v>0.85536428381349483</v>
       </c>
       <c r="AP9" s="0">
         <v>0</v>
@@ -1905,7 +1905,7 @@
         <v>0</v>
       </c>
       <c r="AR9" s="0">
-        <v>0.97373865460822406</v>
+        <v>0.99115334326206295</v>
       </c>
       <c r="AS9" s="0">
         <v>0</v>
@@ -2141,7 +2141,7 @@
         <v>0</v>
       </c>
       <c r="BB10" s="0">
-        <v>0.56967571753606094</v>
+        <v>0.97771854672759684</v>
       </c>
       <c r="BC10" s="0">
         <v>0</v>
@@ -2227,7 +2227,7 @@
         <v>0</v>
       </c>
       <c r="N11" s="0">
-        <v>0.5962096854210307</v>
+        <v>0.86240590845704501</v>
       </c>
       <c r="O11" s="0">
         <v>0</v>
@@ -2269,7 +2269,7 @@
         <v>0</v>
       </c>
       <c r="AB11" s="0">
-        <v>0.52799394090766527</v>
+        <v>0.57306516603682645</v>
       </c>
       <c r="AC11" s="0">
         <v>0</v>
@@ -2299,7 +2299,7 @@
         <v>0</v>
       </c>
       <c r="AL11" s="0">
-        <v>0.83688817639980884</v>
+        <v>0.93803239341811362</v>
       </c>
       <c r="AM11" s="0">
         <v>0</v>
@@ -2380,7 +2380,7 @@
         <v>0</v>
       </c>
       <c r="BM11" s="0">
-        <v>0.67474487848567355</v>
+        <v>0.84737778675366782</v>
       </c>
       <c r="BN11" s="0">
         <v>0</v>
@@ -2409,13 +2409,13 @@
         <v>0</v>
       </c>
       <c r="F12" s="0">
-        <v>0.72144913486588758</v>
+        <v>0.76634458077853918</v>
       </c>
       <c r="G12" s="0">
         <v>0</v>
       </c>
       <c r="H12" s="0">
-        <v>0.68918053955984659</v>
+        <v>0.90763049369300286</v>
       </c>
       <c r="I12" s="0">
         <v>0</v>
@@ -2469,7 +2469,7 @@
         <v>0</v>
       </c>
       <c r="Z12" s="0">
-        <v>0.65178502756406798</v>
+        <v>0.71055214763513308</v>
       </c>
       <c r="AA12" s="0">
         <v>0</v>
@@ -2639,7 +2639,7 @@
         <v>0</v>
       </c>
       <c r="N13" s="0">
-        <v>0.57093262121554855</v>
+        <v>0.57419693411036465</v>
       </c>
       <c r="O13" s="0">
         <v>0</v>
@@ -2765,7 +2765,7 @@
         <v>0</v>
       </c>
       <c r="BD13" s="0">
-        <v>0.70033634855073412</v>
+        <v>0.79423946609522411</v>
       </c>
       <c r="BE13" s="0">
         <v>0</v>
@@ -2905,7 +2905,7 @@
         <v>0</v>
       </c>
       <c r="AH14" s="0">
-        <v>0.73874378301361354</v>
+        <v>0.76721064781839754</v>
       </c>
       <c r="AI14" s="0">
         <v>0</v>
@@ -3099,10 +3099,10 @@
         <v>0</v>
       </c>
       <c r="AD15" s="0">
-        <v>0.53007332372156757</v>
+        <v>0.6060931434771919</v>
       </c>
       <c r="AE15" s="0">
-        <v>0.69384907949182906</v>
+        <v>0.86015590200119929</v>
       </c>
       <c r="AF15" s="0">
         <v>0</v>
@@ -3269,7 +3269,7 @@
         <v>0</v>
       </c>
       <c r="R16" s="0">
-        <v>0.64122445526015481</v>
+        <v>0.65736593158940959</v>
       </c>
       <c r="S16" s="0">
         <v>0</v>
@@ -3305,7 +3305,7 @@
         <v>0</v>
       </c>
       <c r="AD16" s="0">
-        <v>0.88954073074574325</v>
+        <v>0.99096292763283245</v>
       </c>
       <c r="AE16" s="0">
         <v>0</v>
@@ -3433,7 +3433,7 @@
         <v>0</v>
       </c>
       <c r="D17" s="0">
-        <v>0.75040454022257186</v>
+        <v>0.92116389330060544</v>
       </c>
       <c r="E17" s="0">
         <v>0</v>
@@ -3589,7 +3589,7 @@
         <v>0.81597068187300525</v>
       </c>
       <c r="BD17" s="0">
-        <v>0.9068283747680046</v>
+        <v>0.92915662703470137</v>
       </c>
       <c r="BE17" s="0">
         <v>0</v>
@@ -3726,7 +3726,7 @@
         <v>0</v>
       </c>
       <c r="AG18" s="0">
-        <v>0.96466090570920093</v>
+        <v>0.96910095400005014</v>
       </c>
       <c r="AH18" s="0">
         <v>0</v>
@@ -3744,7 +3744,7 @@
         <v>0</v>
       </c>
       <c r="AM18" s="0">
-        <v>0.52590396573637022</v>
+        <v>0.86171043722912644</v>
       </c>
       <c r="AN18" s="0">
         <v>0</v>
@@ -3851,7 +3851,7 @@
         <v>0</v>
       </c>
       <c r="F19" s="0">
-        <v>0.53431036050281788</v>
+        <v>0.84378895461969061</v>
       </c>
       <c r="G19" s="0">
         <v>0</v>
@@ -3860,7 +3860,7 @@
         <v>0</v>
       </c>
       <c r="I19" s="0">
-        <v>0.88508496428706707</v>
+        <v>0.93730289642844378</v>
       </c>
       <c r="J19" s="0">
         <v>0</v>
@@ -3923,7 +3923,7 @@
         <v>0</v>
       </c>
       <c r="AD19" s="0">
-        <v>0.57852663070161592</v>
+        <v>0.58844452144416981</v>
       </c>
       <c r="AE19" s="0">
         <v>0</v>
@@ -3932,7 +3932,7 @@
         <v>0</v>
       </c>
       <c r="AG19" s="0">
-        <v>0.53077624678123747</v>
+        <v>0.81902583692844089</v>
       </c>
       <c r="AH19" s="0">
         <v>0</v>
@@ -4102,7 +4102,7 @@
         <v>0</v>
       </c>
       <c r="U20" s="0">
-        <v>0.59101116969377532</v>
+        <v>0.6737704604755046</v>
       </c>
       <c r="V20" s="0">
         <v>0</v>
@@ -4114,16 +4114,16 @@
         <v>0</v>
       </c>
       <c r="Y20" s="0">
-        <v>0.72612576452547029</v>
+        <v>0.73767985289979721</v>
       </c>
       <c r="Z20" s="0">
-        <v>0.81266455620344569</v>
+        <v>0.96534313263339122</v>
       </c>
       <c r="AA20" s="0">
         <v>0</v>
       </c>
       <c r="AB20" s="0">
-        <v>0.61629401657496985</v>
+        <v>0.99412515001929602</v>
       </c>
       <c r="AC20" s="0">
         <v>0</v>
@@ -4311,7 +4311,7 @@
         <v>0</v>
       </c>
       <c r="V21" s="0">
-        <v>0.66739389173640506</v>
+        <v>0.90073244317818135</v>
       </c>
       <c r="W21" s="0">
         <v>0</v>
@@ -4362,13 +4362,13 @@
         <v>0</v>
       </c>
       <c r="AM21" s="0">
-        <v>0.82203017281094071</v>
+        <v>0.90415829313411566</v>
       </c>
       <c r="AN21" s="0">
         <v>0</v>
       </c>
       <c r="AO21" s="0">
-        <v>0.61468139203106342</v>
+        <v>0.86562275829207636</v>
       </c>
       <c r="AP21" s="0">
         <v>0</v>
@@ -4425,7 +4425,7 @@
         <v>0</v>
       </c>
       <c r="BH21" s="0">
-        <v>0.70999065049597909</v>
+        <v>0.76150889410070077</v>
       </c>
       <c r="BI21" s="0">
         <v>0</v>
@@ -4625,7 +4625,7 @@
         <v>0</v>
       </c>
       <c r="BF22" s="0">
-        <v>0.58974932940144553</v>
+        <v>0.60242592045525245</v>
       </c>
       <c r="BG22" s="0">
         <v>0</v>
@@ -4908,7 +4908,7 @@
         <v>0</v>
       </c>
       <c r="O24" s="0">
-        <v>0.60631376240609303</v>
+        <v>0.83503087957812172</v>
       </c>
       <c r="P24" s="0">
         <v>0</v>
@@ -5090,7 +5090,7 @@
         <v>0</v>
       </c>
       <c r="G25" s="0">
-        <v>0.5601279861384536</v>
+        <v>0.83171515488565095</v>
       </c>
       <c r="H25" s="0">
         <v>0</v>
@@ -5138,7 +5138,7 @@
         <v>0</v>
       </c>
       <c r="W25" s="0">
-        <v>0.66696800807023671</v>
+        <v>0.86079322054775731</v>
       </c>
       <c r="X25" s="0">
         <v>0</v>
@@ -5484,7 +5484,7 @@
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>0.55783094542751521</v>
+        <v>0.63436833041432206</v>
       </c>
       <c r="B27" s="0">
         <v>0</v>
@@ -5550,7 +5550,7 @@
         <v>0</v>
       </c>
       <c r="W27" s="0">
-        <v>0.70190448272383676</v>
+        <v>0.94874398329184284</v>
       </c>
       <c r="X27" s="0">
         <v>0</v>
@@ -5583,7 +5583,7 @@
         <v>0</v>
       </c>
       <c r="AH27" s="0">
-        <v>0.54811308672727166</v>
+        <v>0.7130945816562646</v>
       </c>
       <c r="AI27" s="0">
         <v>0</v>
@@ -5664,13 +5664,13 @@
         <v>0</v>
       </c>
       <c r="BI27" s="0">
-        <v>0.55964547194725678</v>
+        <v>0.58303607835360516</v>
       </c>
       <c r="BJ27" s="0">
         <v>0</v>
       </c>
       <c r="BK27" s="0">
-        <v>0.67648324623475187</v>
+        <v>0.69232688779718221</v>
       </c>
       <c r="BL27" s="0">
         <v>0</v>
@@ -5723,7 +5723,7 @@
         <v>0.57306516603682645</v>
       </c>
       <c r="L28" s="0">
-        <v>0.70209711322980617</v>
+        <v>0.70622859463837351</v>
       </c>
       <c r="M28" s="0">
         <v>0</v>
@@ -5774,7 +5774,7 @@
         <v>0</v>
       </c>
       <c r="AC28" s="0">
-        <v>0.69205058222363047</v>
+        <v>0.96869324992318684</v>
       </c>
       <c r="AD28" s="0">
         <v>0</v>
@@ -5896,7 +5896,7 @@
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>0.53191350215779276</v>
+        <v>0.93949500863609425</v>
       </c>
       <c r="B29" s="0">
         <v>0</v>
@@ -5905,7 +5905,7 @@
         <v>0</v>
       </c>
       <c r="D29" s="0">
-        <v>0.55056425230162431</v>
+        <v>0.63223111923003139</v>
       </c>
       <c r="E29" s="0">
         <v>0</v>
@@ -6001,7 +6001,7 @@
         <v>0</v>
       </c>
       <c r="AJ29" s="0">
-        <v>0.53359997964773687</v>
+        <v>0.86403905607353781</v>
       </c>
       <c r="AK29" s="0">
         <v>0</v>
@@ -6180,7 +6180,7 @@
         <v>0</v>
       </c>
       <c r="AA30" s="0">
-        <v>0.54955159011969612</v>
+        <v>0.5626727159380156</v>
       </c>
       <c r="AB30" s="0">
         <v>0</v>
@@ -6240,7 +6240,7 @@
         <v>0</v>
       </c>
       <c r="AU30" s="0">
-        <v>0.70417720599456024</v>
+        <v>0.82875188333669492</v>
       </c>
       <c r="AV30" s="0">
         <v>0</v>
@@ -6834,7 +6834,7 @@
         <v>0</v>
       </c>
       <c r="AM33" s="0">
-        <v>0.71299954017747558</v>
+        <v>0.75679702933024195</v>
       </c>
       <c r="AN33" s="0">
         <v>0</v>
@@ -6906,7 +6906,7 @@
         <v>0</v>
       </c>
       <c r="BK33" s="0">
-        <v>0.5285452834214398</v>
+        <v>0.80732535837513564</v>
       </c>
       <c r="BL33" s="0">
         <v>0</v>
@@ -6929,7 +6929,7 @@
         <v>0</v>
       </c>
       <c r="B34" s="0">
-        <v>0.90099007171793899</v>
+        <v>0.96143626262092519</v>
       </c>
       <c r="C34" s="0">
         <v>0</v>
@@ -6998,7 +6998,7 @@
         <v>0</v>
       </c>
       <c r="Y34" s="0">
-        <v>0.60209828144025135</v>
+        <v>0.79027900994043221</v>
       </c>
       <c r="Z34" s="0">
         <v>0</v>
@@ -7147,7 +7147,7 @@
         <v>0</v>
       </c>
       <c r="F35" s="0">
-        <v>0.69310294566135111</v>
+        <v>0.88784415334368882</v>
       </c>
       <c r="G35" s="0">
         <v>0</v>
@@ -7237,7 +7237,7 @@
         <v>0</v>
       </c>
       <c r="AJ35" s="0">
-        <v>0.50627206425473359</v>
+        <v>0.62974611716068374</v>
       </c>
       <c r="AK35" s="0">
         <v>0</v>
@@ -7273,7 +7273,7 @@
         <v>0</v>
       </c>
       <c r="AV35" s="0">
-        <v>0.93522482015243935</v>
+        <v>0.98826831017844574</v>
       </c>
       <c r="AW35" s="0">
         <v>0</v>
@@ -7315,7 +7315,7 @@
         <v>0</v>
       </c>
       <c r="BJ35" s="0">
-        <v>0.80853537799783237</v>
+        <v>0.96322965188121157</v>
       </c>
       <c r="BK35" s="0">
         <v>0</v>
@@ -7359,7 +7359,7 @@
         <v>0</v>
       </c>
       <c r="H36" s="0">
-        <v>0.86248912354564533</v>
+        <v>0.89068434726611723</v>
       </c>
       <c r="I36" s="0">
         <v>0</v>
@@ -7437,7 +7437,7 @@
         <v>0</v>
       </c>
       <c r="AH36" s="0">
-        <v>0.75442883016122553</v>
+        <v>0.88402039759753259</v>
       </c>
       <c r="AI36" s="0">
         <v>0.62974611716068374</v>
@@ -7547,7 +7547,7 @@
         <v>0</v>
       </c>
       <c r="B37" s="0">
-        <v>0.62421901625706322</v>
+        <v>0.92082721716303539</v>
       </c>
       <c r="C37" s="0">
         <v>0</v>
@@ -7759,7 +7759,7 @@
         <v>0</v>
       </c>
       <c r="D38" s="0">
-        <v>0.69120306108546381</v>
+        <v>0.73354284620833221</v>
       </c>
       <c r="E38" s="0">
         <v>0</v>
@@ -7870,7 +7870,7 @@
         <v>0</v>
       </c>
       <c r="AO38" s="0">
-        <v>0.77420334247957756</v>
+        <v>0.84642041730904105</v>
       </c>
       <c r="AP38" s="0">
         <v>0</v>
@@ -7918,7 +7918,7 @@
         <v>0</v>
       </c>
       <c r="BE38" s="0">
-        <v>0.68962175114617996</v>
+        <v>0.84707039320544597</v>
       </c>
       <c r="BF38" s="0">
         <v>0</v>
@@ -8067,7 +8067,7 @@
         <v>0</v>
       </c>
       <c r="AL39" s="0">
-        <v>0.76158850604865735</v>
+        <v>0.8969379959711532</v>
       </c>
       <c r="AM39" s="0">
         <v>0</v>
@@ -8204,7 +8204,7 @@
         <v>0</v>
       </c>
       <c r="O40" s="0">
-        <v>0.69587353531129914</v>
+        <v>0.99093298848891109</v>
       </c>
       <c r="P40" s="0">
         <v>0</v>
@@ -8374,7 +8374,7 @@
         <v>0</v>
       </c>
       <c r="C41" s="0">
-        <v>0.52575763215561722</v>
+        <v>0.97626921097861763</v>
       </c>
       <c r="D41" s="0">
         <v>0</v>
@@ -8527,7 +8527,7 @@
         <v>0</v>
       </c>
       <c r="BB41" s="0">
-        <v>0.56443986267063662</v>
+        <v>0.63805913676292292</v>
       </c>
       <c r="BC41" s="0">
         <v>0</v>
@@ -8643,7 +8643,7 @@
         <v>0</v>
       </c>
       <c r="X42" s="0">
-        <v>0.60375749385008803</v>
+        <v>0.94817080582581115</v>
       </c>
       <c r="Y42" s="0">
         <v>0</v>
@@ -8727,7 +8727,7 @@
         <v>0</v>
       </c>
       <c r="AZ42" s="0">
-        <v>0.94959924159979181</v>
+        <v>0.9989875595329506</v>
       </c>
       <c r="BA42" s="0">
         <v>0</v>
@@ -8763,7 +8763,7 @@
         <v>0</v>
       </c>
       <c r="BL42" s="0">
-        <v>0.62151231023887255</v>
+        <v>0.76860999130379448</v>
       </c>
       <c r="BM42" s="0">
         <v>0</v>
@@ -8972,7 +8972,7 @@
         <v>0</v>
       </c>
       <c r="BM43" s="0">
-        <v>0.5205086417368352</v>
+        <v>0.6046001550914617</v>
       </c>
       <c r="BN43" s="0">
         <v>0</v>
@@ -9121,7 +9121,7 @@
         <v>0</v>
       </c>
       <c r="AT44" s="0">
-        <v>0.76170176940844414</v>
+        <v>0.80813794387739368</v>
       </c>
       <c r="AU44" s="0">
         <v>0</v>
@@ -9270,7 +9270,7 @@
         <v>0</v>
       </c>
       <c r="AA45" s="0">
-        <v>0.54331668665720412</v>
+        <v>0.82772193846915099</v>
       </c>
       <c r="AB45" s="0">
         <v>0</v>
@@ -9285,7 +9285,7 @@
         <v>0</v>
       </c>
       <c r="AF45" s="0">
-        <v>0.57454426938986625</v>
+        <v>0.71270109438241902</v>
       </c>
       <c r="AG45" s="0">
         <v>0</v>
@@ -9407,7 +9407,7 @@
         <v>0</v>
       </c>
       <c r="D46" s="0">
-        <v>0.64672591082137854</v>
+        <v>0.98032062064436665</v>
       </c>
       <c r="E46" s="0">
         <v>0</v>
@@ -9506,13 +9506,13 @@
         <v>0</v>
       </c>
       <c r="AK46" s="0">
-        <v>0.51811608680908083</v>
+        <v>0.80863524987317703</v>
       </c>
       <c r="AL46" s="0">
         <v>0</v>
       </c>
       <c r="AM46" s="0">
-        <v>0.61871333375097004</v>
+        <v>0.76999348838405179</v>
       </c>
       <c r="AN46" s="0">
         <v>0</v>
@@ -9530,7 +9530,7 @@
         <v>0.80813794387739368</v>
       </c>
       <c r="AS46" s="0">
-        <v>0.6502947576736553</v>
+        <v>0.83364736338983958</v>
       </c>
       <c r="AT46" s="0">
         <v>0</v>
@@ -9604,7 +9604,7 @@
     </row>
     <row r="47">
       <c r="A47" s="0">
-        <v>0.6427025066595613</v>
+        <v>0.87638582686951605</v>
       </c>
       <c r="B47" s="0">
         <v>0</v>
@@ -9622,7 +9622,7 @@
         <v>0</v>
       </c>
       <c r="G47" s="0">
-        <v>0.53145165192814225</v>
+        <v>0.84626384899774409</v>
       </c>
       <c r="H47" s="0">
         <v>0</v>
@@ -9646,7 +9646,7 @@
         <v>0</v>
       </c>
       <c r="O47" s="0">
-        <v>0.78103745160293014</v>
+        <v>0.90340968562550406</v>
       </c>
       <c r="P47" s="0">
         <v>0</v>
@@ -9679,7 +9679,7 @@
         <v>0</v>
       </c>
       <c r="Z47" s="0">
-        <v>0.63335694352638705</v>
+        <v>0.91903416787581049</v>
       </c>
       <c r="AA47" s="0">
         <v>0</v>
@@ -9727,10 +9727,10 @@
         <v>0</v>
       </c>
       <c r="AP47" s="0">
-        <v>0.82707226858442029</v>
+        <v>0.86161553924925061</v>
       </c>
       <c r="AQ47" s="0">
-        <v>0.77648146659454764</v>
+        <v>0.97498812610696217</v>
       </c>
       <c r="AR47" s="0">
         <v>0</v>
@@ -10163,7 +10163,7 @@
         <v>0</v>
       </c>
       <c r="AX49" s="0">
-        <v>0.54658612428886455</v>
+        <v>0.88166014967242878</v>
       </c>
       <c r="AY49" s="0">
         <v>0</v>
@@ -10172,7 +10172,7 @@
         <v>0</v>
       </c>
       <c r="BA49" s="0">
-        <v>0.67400375981724614</v>
+        <v>0.81015613351958304</v>
       </c>
       <c r="BB49" s="0">
         <v>0</v>
@@ -10372,7 +10372,7 @@
         <v>0</v>
       </c>
       <c r="AY50" s="0">
-        <v>0.93875670065193617</v>
+        <v>0.95064327884037358</v>
       </c>
       <c r="AZ50" s="0">
         <v>0</v>
@@ -10497,7 +10497,7 @@
         <v>0</v>
       </c>
       <c r="X51" s="0">
-        <v>0.91796583908031648</v>
+        <v>0.97299583141173906</v>
       </c>
       <c r="Y51" s="0">
         <v>0</v>
@@ -10820,7 +10820,7 @@
         <v>0</v>
       </c>
       <c r="BK52" s="0">
-        <v>0.5036940734359413</v>
+        <v>0.85107544866186391</v>
       </c>
       <c r="BL52" s="0">
         <v>0</v>
@@ -10876,7 +10876,7 @@
         <v>0</v>
       </c>
       <c r="M53" s="0">
-        <v>0.79198154354480232</v>
+        <v>0.98761723503726151</v>
       </c>
       <c r="N53" s="0">
         <v>0</v>
@@ -10894,7 +10894,7 @@
         <v>0</v>
       </c>
       <c r="S53" s="0">
-        <v>0.69705066355618528</v>
+        <v>0.73323673561573699</v>
       </c>
       <c r="T53" s="0">
         <v>0</v>
@@ -10930,7 +10930,7 @@
         <v>0</v>
       </c>
       <c r="AE53" s="0">
-        <v>0.51448830865020279</v>
+        <v>0.58068715132733673</v>
       </c>
       <c r="AF53" s="0">
         <v>0</v>
@@ -11208,7 +11208,7 @@
         <v>0</v>
       </c>
       <c r="BC54" s="0">
-        <v>0.6964953036292012</v>
+        <v>0.98570991322687418</v>
       </c>
       <c r="BD54" s="0">
         <v>0</v>
@@ -11300,10 +11300,10 @@
         <v>0</v>
       </c>
       <c r="Q55" s="0">
-        <v>0.74384219924051798</v>
+        <v>0.81597068187300525</v>
       </c>
       <c r="R55" s="0">
-        <v>0.66491640241166072</v>
+        <v>0.83118288868164003</v>
       </c>
       <c r="S55" s="0">
         <v>0</v>
@@ -11378,7 +11378,7 @@
         <v>0</v>
       </c>
       <c r="AQ55" s="0">
-        <v>0.67554839882457529</v>
+        <v>0.88156564213416488</v>
       </c>
       <c r="AR55" s="0">
         <v>0</v>
@@ -11402,7 +11402,7 @@
         <v>0</v>
       </c>
       <c r="AY55" s="0">
-        <v>0.56062265834665581</v>
+        <v>0.63382531321005298</v>
       </c>
       <c r="AZ55" s="0">
         <v>0</v>
@@ -11432,7 +11432,7 @@
         <v>0</v>
       </c>
       <c r="BI55" s="0">
-        <v>0.82391229515480291</v>
+        <v>0.9755513849406996</v>
       </c>
       <c r="BJ55" s="0">
         <v>0</v>
@@ -11467,7 +11467,7 @@
         <v>0</v>
       </c>
       <c r="D56" s="0">
-        <v>0.75576162966933458</v>
+        <v>0.91636570012272733</v>
       </c>
       <c r="E56" s="0">
         <v>0</v>
@@ -11715,7 +11715,7 @@
         <v>0</v>
       </c>
       <c r="R57" s="0">
-        <v>0.50292282512704767</v>
+        <v>0.97074011468225418</v>
       </c>
       <c r="S57" s="0">
         <v>0</v>
@@ -11784,7 +11784,7 @@
         <v>0</v>
       </c>
       <c r="AO57" s="0">
-        <v>0.71291521818953751</v>
+        <v>0.87901791050135181</v>
       </c>
       <c r="AP57" s="0">
         <v>0</v>
@@ -11829,7 +11829,7 @@
         <v>0</v>
       </c>
       <c r="BD57" s="0">
-        <v>0.9506220341921785</v>
+        <v>0.95112478785987387</v>
       </c>
       <c r="BE57" s="0">
         <v>0</v>
@@ -11963,7 +11963,7 @@
         <v>0</v>
       </c>
       <c r="AF58" s="0">
-        <v>0.59783259698169178</v>
+        <v>0.80209297741038488</v>
       </c>
       <c r="AG58" s="0">
         <v>0</v>
@@ -11993,7 +11993,7 @@
         <v>0</v>
       </c>
       <c r="AP58" s="0">
-        <v>0.77580755518889655</v>
+        <v>0.83887678565096313</v>
       </c>
       <c r="AQ58" s="0">
         <v>0</v>
@@ -12211,7 +12211,7 @@
         <v>0</v>
       </c>
       <c r="AT59" s="0">
-        <v>0.79793288402892615</v>
+        <v>0.88827270391454249</v>
       </c>
       <c r="AU59" s="0">
         <v>0</v>
@@ -12312,7 +12312,7 @@
         <v>0</v>
       </c>
       <c r="K60" s="0">
-        <v>0.57753315990179965</v>
+        <v>0.61055255787522578</v>
       </c>
       <c r="L60" s="0">
         <v>0</v>
@@ -12423,7 +12423,7 @@
         <v>0</v>
       </c>
       <c r="AV60" s="0">
-        <v>0.50151418957551086</v>
+        <v>0.7546068631805295</v>
       </c>
       <c r="AW60" s="0">
         <v>0</v>
@@ -12453,7 +12453,7 @@
         <v>0</v>
       </c>
       <c r="BF60" s="0">
-        <v>0.72337447138586897</v>
+        <v>0.97431467870386301</v>
       </c>
       <c r="BG60" s="0">
         <v>0</v>
@@ -12524,7 +12524,7 @@
         <v>0</v>
       </c>
       <c r="M61" s="0">
-        <v>0.60461658458864576</v>
+        <v>0.73863536381774819</v>
       </c>
       <c r="N61" s="0">
         <v>0</v>
@@ -12662,7 +12662,7 @@
         <v>0</v>
       </c>
       <c r="BG61" s="0">
-        <v>0.66638963578350552</v>
+        <v>0.85040411114324255</v>
       </c>
       <c r="BH61" s="0">
         <v>0</v>
@@ -12739,7 +12739,7 @@
         <v>0</v>
       </c>
       <c r="P62" s="0">
-        <v>0.67297955466415149</v>
+        <v>0.9588052620894304</v>
       </c>
       <c r="Q62" s="0">
         <v>0</v>
@@ -12748,7 +12748,7 @@
         <v>0</v>
       </c>
       <c r="S62" s="0">
-        <v>0.73545257897111327</v>
+        <v>0.99413243016330155</v>
       </c>
       <c r="T62" s="0">
         <v>0</v>
@@ -12814,7 +12814,7 @@
         <v>0</v>
       </c>
       <c r="AO62" s="0">
-        <v>0.54725637591399345</v>
+        <v>0.90616360763554415</v>
       </c>
       <c r="AP62" s="0">
         <v>0</v>
@@ -12844,7 +12844,7 @@
         <v>0</v>
       </c>
       <c r="AY62" s="0">
-        <v>0.51163690054243638</v>
+        <v>0.95323794512470084</v>
       </c>
       <c r="AZ62" s="0">
         <v>0</v>
@@ -13223,7 +13223,7 @@
         <v>0</v>
       </c>
       <c r="AN64" s="0">
-        <v>0.69708402347144349</v>
+        <v>0.92040165894850567</v>
       </c>
       <c r="AO64" s="0">
         <v>0</v>
@@ -13298,7 +13298,7 @@
         <v>0</v>
       </c>
       <c r="BM64" s="0">
-        <v>0.87180201926984768</v>
+        <v>0.89615175216663168</v>
       </c>
       <c r="BN64" s="0">
         <v>0</v>
@@ -13339,7 +13339,7 @@
         <v>0</v>
       </c>
       <c r="J65" s="0">
-        <v>0.58343669785594698</v>
+        <v>0.78282305644365979</v>
       </c>
       <c r="K65" s="0">
         <v>0.84737778675366782</v>
@@ -13507,7 +13507,7 @@
         <v>0</v>
       </c>
       <c r="BN65" s="0">
-        <v>0.6807736754032474</v>
+        <v>0.7741895475273517</v>
       </c>
       <c r="BO65" s="0">
         <v>0</v>
@@ -13590,13 +13590,13 @@
         <v>0</v>
       </c>
       <c r="Y66" s="0">
-        <v>0.84024845977743812</v>
+        <v>0.97766456123837209</v>
       </c>
       <c r="Z66" s="0">
         <v>0</v>
       </c>
       <c r="AA66" s="0">
-        <v>0.63763956700965307</v>
+        <v>0.65706045045956807</v>
       </c>
       <c r="AB66" s="0">
         <v>0</v>
@@ -13814,7 +13814,7 @@
         <v>0</v>
       </c>
       <c r="AE67" s="0">
-        <v>0.61707725004326286</v>
+        <v>0.73501209914911303</v>
       </c>
       <c r="AF67" s="0">
         <v>0</v>
@@ -13871,7 +13871,7 @@
         <v>0</v>
       </c>
       <c r="AX67" s="0">
-        <v>0.62878783942461081</v>
+        <v>0.94745349836883186</v>
       </c>
       <c r="AY67" s="0">
         <v>0</v>
@@ -14080,7 +14080,7 @@
         <v>0</v>
       </c>
       <c r="AY68" s="0">
-        <v>0.93645343205201748</v>
+        <v>0.99311489113998086</v>
       </c>
       <c r="AZ68" s="0">
         <v>0</v>
@@ -14107,7 +14107,7 @@
         <v>0</v>
       </c>
       <c r="BH68" s="0">
-        <v>0.62356951117480475</v>
+        <v>0.93789911440514684</v>
       </c>
       <c r="BI68" s="0">
         <v>0</v>
